--- a/docs/_data/data_XLS.xlsx
+++ b/docs/_data/data_XLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google Drive\06_GITHUB\LideresSociales\docs\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F1E0278E-748D-4E81-8962-864239755FB5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7414E969-FA5A-4BA6-ACEB-D7B6CD100D83}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2553,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S104"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,7 +2573,7 @@
     <col min="16" max="16" width="10.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="23.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="104.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2702,8 +2702,8 @@
         <v>19</v>
       </c>
       <c r="S2" s="1" t="str">
-        <f>+TEXT(CONCATENATE("_data/IMG/",C2,".jpg"),)</f>
-        <v>_data/IMG/0001.jpg</v>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C2,".jpg"),)</f>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0001.jpg</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>20</v>
@@ -2772,8 +2772,8 @@
         <v>19</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S66" si="7">+TEXT(CONCATENATE("_data/IMG/",C3,".jpg"),)</f>
-        <v>_data/IMG/0002.jpg</v>
+        <f t="shared" ref="S3:S66" si="7">+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C3,".jpg"),)</f>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0002.jpg</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>26</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="S4" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0003.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0003.jpg</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>32</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="S5" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0004.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0004.jpg</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>38</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="S6" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0005.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0005.jpg</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>45</v>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="S7" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0006.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0006.jpg</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>51</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="S8" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0007.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0007.jpg</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>57</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="S9" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0008.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0008.jpg</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>62</v>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="S10" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0009.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0009.jpg</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>67</v>
@@ -3332,8 +3332,8 @@
         <v>19</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_data/IMG/0010.jpg</v>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C11,".jpg"),)</f>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0010.jpg</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>73</v>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="S12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0011.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0011.jpg</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>78</v>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="S13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0012.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0012.jpg</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>84</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="S14" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0013.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0013.jpg</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>90</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="S15" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0014.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0014.jpg</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>96</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="S16" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0015.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0015.jpg</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>101</v>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="S17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0016.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0016.jpg</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>106</v>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="S18" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0017.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0017.jpg</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>111</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="S19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0018.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0018.jpg</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>116</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="S20" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0019.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0019.jpg</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>121</v>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="S21" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0020.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0020.jpg</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>126</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="S22" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0021.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0021.jpg</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>132</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="S23" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0022.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0022.jpg</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>137</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="S24" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0023.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0023.jpg</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>142</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="S25" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0024.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0024.jpg</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>147</v>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="S26" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0025.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0025.jpg</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>153</v>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="S27" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0026.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0026.jpg</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>153</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="S28" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0027.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0027.jpg</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>159</v>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="S29" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0028.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0028.jpg</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>164</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S30" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0029.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0029.jpg</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>493</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="S31" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0030.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0030.jpg</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>172</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="S32" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0031.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0031.jpg</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>177</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="S33" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0032.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0032.jpg</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>182</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="S34" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0033.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0033.jpg</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>187</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="S35" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0034.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0034.jpg</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>192</v>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="S36" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0035.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0035.jpg</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>198</v>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="S37" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0036.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0036.jpg</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>203</v>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="S38" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0037.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0037.jpg</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>208</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="S39" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0038.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0038.jpg</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>214</v>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="S40" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0039.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0039.jpg</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>219</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="S41" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0040.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0040.jpg</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>224</v>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="S42" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0041.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0041.jpg</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>230</v>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="S43" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0042.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0042.jpg</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>235</v>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="S44" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0043.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0043.jpg</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>240</v>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="S45" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0044.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0044.jpg</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>245</v>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="S46" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0045.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0045.jpg</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>250</v>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="S47" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0046.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0046.jpg</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>255</v>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="S48" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0047.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0047.jpg</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>259</v>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="S49" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0048.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0048.jpg</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>265</v>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="S50" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0049.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0049.jpg</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>270</v>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="S51" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0050.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0050.jpg</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>275</v>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="S52" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0051.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0051.jpg</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>280</v>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="S53" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0052.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0052.jpg</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>285</v>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="S54" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0053.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0053.jpg</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>290</v>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="S55" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0054.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0054.jpg</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>294</v>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="S56" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0055.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0055.jpg</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>299</v>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="S57" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0056.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0056.jpg</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>304</v>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="S58" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0057.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0057.jpg</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>308</v>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="S59" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0058.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0058.jpg</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>314</v>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="S60" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0059.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0059.jpg</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>317</v>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="S61" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0060.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0060.jpg</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>321</v>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="S62" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0061.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0061.jpg</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>325</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="S63" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0062.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0062.jpg</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>328</v>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="S64" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0063.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0063.jpg</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>334</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="S65" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0064.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0064.jpg</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>339</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="S66" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_data/IMG/0065.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0065.jpg</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>344</v>
@@ -7252,8 +7252,8 @@
         <v>19</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f t="shared" ref="S67:S104" si="22">+TEXT(CONCATENATE("_data/IMG/",C67,".jpg"),)</f>
-        <v>_data/IMG/0066.jpg</v>
+        <f t="shared" ref="S67:S104" si="22">+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C67,".jpg"),)</f>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0066.jpg</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>349</v>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="S68" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0067.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0067.jpg</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>354</v>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="S69" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0068.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0068.jpg</v>
       </c>
       <c r="T69" s="1" t="s">
         <v>359</v>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="S70" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0069.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0069.jpg</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>364</v>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="S71" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0070.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0070.jpg</v>
       </c>
       <c r="T71" s="1" t="s">
         <v>369</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="S72" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0071.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0071.jpg</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>373</v>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="S73" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0072.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0072.jpg</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>377</v>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="S74" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0073.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0073.jpg</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>382</v>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="S75" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0074.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0074.jpg</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>388</v>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="S76" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0075.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0075.jpg</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>393</v>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="S77" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0076.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0076.jpg</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>398</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="S78" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0077.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0077.jpg</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>402</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="S79" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0078.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0078.jpg</v>
       </c>
       <c r="T79" s="1" t="s">
         <v>406</v>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="S80" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0079.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0079.jpg</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>410</v>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="S81" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0080.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0080.jpg</v>
       </c>
       <c r="T81" s="1" t="s">
         <v>415</v>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="S82" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0081.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0081.jpg</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>420</v>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="S83" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0082.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0082.jpg</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>424</v>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="S84" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0083.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0083.jpg</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>429</v>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="S85" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0084.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0084.jpg</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>434</v>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="S86" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0085.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0085.jpg</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>440</v>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="S87" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0086.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0086.jpg</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>445</v>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="S88" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0087.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0087.jpg</v>
       </c>
       <c r="T88" s="1" t="s">
         <v>449</v>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="S89" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0088.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0088.jpg</v>
       </c>
       <c r="T89" s="1" t="s">
         <v>455</v>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="S90" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0089.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0089.jpg</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>460</v>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="S91" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0090.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0090.jpg</v>
       </c>
       <c r="T91" s="1" t="s">
         <v>465</v>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="S92" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0091.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0091.jpg</v>
       </c>
       <c r="T92" s="1" t="s">
         <v>470</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="S93" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0092.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0092.jpg</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>473</v>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="S94" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0093.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0093.jpg</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>478</v>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="S95" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0094.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0094.jpg</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>483</v>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="S96" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0095.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0095.jpg</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>486</v>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="S97" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0096.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0096.jpg</v>
       </c>
       <c r="T97" s="1" t="s">
         <v>523</v>
@@ -9367,7 +9367,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f t="shared" ref="C98:C129" si="23">+TEXT(B98,"0000")</f>
+        <f t="shared" ref="C98:C104" si="23">+TEXT(B98,"0000")</f>
         <v>0097</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -9380,7 +9380,7 @@
         <v>36</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f t="shared" ref="G98:G129" si="24">+CONCATENATE(E98,", ",F98)</f>
+        <f t="shared" ref="G98:G104" si="24">+CONCATENATE(E98,", ",F98)</f>
         <v>Buenos Aires, Cauca</v>
       </c>
       <c r="H98" s="1">
@@ -9393,7 +9393,7 @@
         <v>43283</v>
       </c>
       <c r="K98" s="1" t="str">
-        <f t="shared" ref="K98:K129" si="25">+TEXT(J98,"DD-MM-YYYY")</f>
+        <f t="shared" ref="K98:K104" si="25">+TEXT(J98,"DD-MM-YYYY")</f>
         <v>02-07-2018</v>
       </c>
       <c r="L98" s="4">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="S98" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0097.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0097.jpg</v>
       </c>
       <c r="T98" s="1" t="s">
         <v>519</v>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="S99" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0098.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0098.jpg</v>
       </c>
       <c r="T99" s="1" t="s">
         <v>520</v>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="S100" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0099.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0099.jpg</v>
       </c>
       <c r="T100" s="1" t="s">
         <v>521</v>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="S101" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0100.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0100.jpg</v>
       </c>
       <c r="T101" s="1" t="s">
         <v>522</v>
@@ -9703,7 +9703,7 @@
       </c>
       <c r="S102" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0101.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0101.jpg</v>
       </c>
       <c r="T102" s="1" t="s">
         <v>535</v>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="S103" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0102.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0102.jpg</v>
       </c>
       <c r="T103" s="1" t="s">
         <v>536</v>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="S104" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>_data/IMG/0103.jpg</v>
+        <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0103.jpg</v>
       </c>
       <c r="T104" s="1" t="s">
         <v>537</v>

--- a/docs/_data/data_XLS.xlsx
+++ b/docs/_data/data_XLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google Drive\06_GITHUB\LideresSociales\docs\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7414E969-FA5A-4BA6-ACEB-D7B6CD100D83}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2256404D-3570-448F-805A-AD0F0F4570D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2553,13 +2553,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C33" si="0">+TEXT(B2,"0000")</f>
+        <f>+TEXT(B2,"0000")</f>
         <v>0001</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2660,7 +2660,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G33" si="1">+CONCATENATE(E2,", ",F2)</f>
+        <f>+CONCATENATE(E2,", ",F2)</f>
         <v>Riohacha, La Guajira</v>
       </c>
       <c r="H2" s="1">
@@ -2673,23 +2673,23 @@
         <v>42705</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f t="shared" ref="K2:K33" si="2">+TEXT(J2,"DD-MM-YYYY")</f>
+        <f>+TEXT(J2,"DD-MM-YYYY")</f>
         <v>01-12-2016</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L33" si="3">+YEAR(J2)</f>
+        <f>+YEAR(J2)</f>
         <v>2016</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" ref="M2:M33" si="4">+MONTH(J2)</f>
+        <f>+MONTH(J2)</f>
         <v>12</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" ref="N2:N33" si="5">+DAY(J2)</f>
+        <f>+DAY(J2)</f>
         <v>1</v>
       </c>
       <c r="O2" s="3" t="str">
-        <f t="shared" ref="O2:O33" si="6">+TEXT(K2,"DD-MMM-YYYY")</f>
+        <f>+TEXT(K2,"DD-MMM-YYYY")</f>
         <v>01-Dec-2016</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B3,"0000")</f>
         <v>0002</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2730,7 +2730,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E3,", ",F3)</f>
         <v>Paez, Cáuca</v>
       </c>
       <c r="H3" s="1">
@@ -2743,23 +2743,23 @@
         <v>42706</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J3,"DD-MM-YYYY")</f>
         <v>02-12-2016</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J3)</f>
         <v>2016</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J3)</f>
         <v>12</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J3)</f>
         <v>2</v>
       </c>
       <c r="O3" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K3,"DD-MMM-YYYY")</f>
         <v>02-Dec-2016</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -2772,7 +2772,7 @@
         <v>19</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S66" si="7">+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C3,".jpg"),)</f>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C3,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0002.jpg</v>
       </c>
       <c r="T3" s="1" t="s">
@@ -2787,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B4,"0000")</f>
         <v>0003</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2800,7 +2800,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E4,", ",F4)</f>
         <v>Galapa, Atlántico</v>
       </c>
       <c r="H4" s="1">
@@ -2813,23 +2813,23 @@
         <v>42706</v>
       </c>
       <c r="K4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J4,"DD-MM-YYYY")</f>
         <v>02-12-2016</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J4)</f>
         <v>2016</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J4)</f>
         <v>12</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J4)</f>
         <v>2</v>
       </c>
       <c r="O4" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K4,"DD-MMM-YYYY")</f>
         <v>02-Dec-2016</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -2842,7 +2842,7 @@
         <v>19</v>
       </c>
       <c r="S4" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C4,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0003.jpg</v>
       </c>
       <c r="T4" s="1" t="s">
@@ -2857,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B5,"0000")</f>
         <v>0004</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2870,7 +2870,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E5,", ",F5)</f>
         <v>Satará, Cauca</v>
       </c>
       <c r="H5" s="1">
@@ -2883,23 +2883,23 @@
         <v>42707</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J5,"DD-MM-YYYY")</f>
         <v>03-12-2016</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J5)</f>
         <v>2016</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J5)</f>
         <v>12</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J5)</f>
         <v>3</v>
       </c>
       <c r="O5" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K5,"DD-MMM-YYYY")</f>
         <v>03-Dec-2016</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -2912,7 +2912,7 @@
         <v>19</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C5,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0004.jpg</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -2927,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B6,"0000")</f>
         <v>0005</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2940,7 +2940,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E6,", ",F6)</f>
         <v>Montería, Córdoba</v>
       </c>
       <c r="H6" s="1">
@@ -2953,23 +2953,23 @@
         <v>42707</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J6,"DD-MM-YYYY")</f>
         <v>03-12-2016</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J6)</f>
         <v>2016</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J6)</f>
         <v>12</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J6)</f>
         <v>3</v>
       </c>
       <c r="O6" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K6,"DD-MMM-YYYY")</f>
         <v>03-Dec-2016</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -2982,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="S6" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C6,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0005.jpg</v>
       </c>
       <c r="T6" s="1" t="s">
@@ -2997,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B7,"0000")</f>
         <v>0006</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3010,7 +3010,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E7,", ",F7)</f>
         <v>Tiquisio, Bolívar</v>
       </c>
       <c r="H7" s="1">
@@ -3023,23 +3023,23 @@
         <v>42714</v>
       </c>
       <c r="K7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J7,"DD-MM-YYYY")</f>
         <v>10-12-2016</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J7)</f>
         <v>2016</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J7)</f>
         <v>12</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J7)</f>
         <v>10</v>
       </c>
       <c r="O7" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K7,"DD-MMM-YYYY")</f>
         <v>10-Dec-2016</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3052,7 +3052,7 @@
         <v>19</v>
       </c>
       <c r="S7" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C7,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0006.jpg</v>
       </c>
       <c r="T7" s="1" t="s">
@@ -3067,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B8,"0000")</f>
         <v>0007</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3080,7 +3080,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E8,", ",F8)</f>
         <v>Puerto Asís, Putumayo</v>
       </c>
       <c r="H8" s="1">
@@ -3093,23 +3093,23 @@
         <v>42716</v>
       </c>
       <c r="K8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J8,"DD-MM-YYYY")</f>
         <v>12-12-2016</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J8)</f>
         <v>2016</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J8)</f>
         <v>12</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J8)</f>
         <v>12</v>
       </c>
       <c r="O8" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K8,"DD-MMM-YYYY")</f>
         <v>12-Dec-2016</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -3122,7 +3122,7 @@
         <v>19</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C8,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0007.jpg</v>
       </c>
       <c r="T8" s="1" t="s">
@@ -3137,7 +3137,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B9,"0000")</f>
         <v>0008</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3150,7 +3150,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E9,", ",F9)</f>
         <v>Argelia, Cauca</v>
       </c>
       <c r="H9" s="1">
@@ -3163,23 +3163,23 @@
         <v>42729</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J9,"DD-MM-YYYY")</f>
         <v>25-12-2016</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J9)</f>
         <v>2016</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J9)</f>
         <v>12</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J9)</f>
         <v>25</v>
       </c>
       <c r="O9" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K9,"DD-MMM-YYYY")</f>
         <v>25-Dec-2016</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -3192,7 +3192,7 @@
         <v>19</v>
       </c>
       <c r="S9" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C9,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0008.jpg</v>
       </c>
       <c r="T9" s="1" t="s">
@@ -3207,7 +3207,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B10,"0000")</f>
         <v>0009</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3220,7 +3220,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E10,", ",F10)</f>
         <v>Caloto, Cauca</v>
       </c>
       <c r="H10" s="1">
@@ -3233,23 +3233,23 @@
         <v>42744</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J10,"DD-MM-YYYY")</f>
         <v>09-01-2017</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J10)</f>
         <v>2017</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J10)</f>
         <v>1</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J10)</f>
         <v>9</v>
       </c>
       <c r="O10" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K10,"DD-MMM-YYYY")</f>
         <v>09-Jan-2017</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -3262,7 +3262,7 @@
         <v>19</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C10,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0009.jpg</v>
       </c>
       <c r="T10" s="1" t="s">
@@ -3277,7 +3277,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B11,"0000")</f>
         <v>0010</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3290,7 +3290,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E11,", ",F11)</f>
         <v>La Loma, Cesar</v>
       </c>
       <c r="H11" s="1">
@@ -3303,23 +3303,23 @@
         <v>42742</v>
       </c>
       <c r="K11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J11,"DD-MM-YYYY")</f>
         <v>07-01-2017</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J11)</f>
         <v>2017</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J11)</f>
         <v>7</v>
       </c>
       <c r="O11" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K11,"DD-MMM-YYYY")</f>
         <v>07-Jan-2017</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -3347,7 +3347,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B12,"0000")</f>
         <v>0011</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3360,7 +3360,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E12,", ",F12)</f>
         <v>Balboa, Cauca</v>
       </c>
       <c r="H12" s="1">
@@ -3373,23 +3373,23 @@
         <v>42734</v>
       </c>
       <c r="K12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J12,"DD-MM-YYYY")</f>
         <v>30-12-2016</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J12)</f>
         <v>2016</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J12)</f>
         <v>12</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J12)</f>
         <v>30</v>
       </c>
       <c r="O12" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K12,"DD-MMM-YYYY")</f>
         <v>30-Dec-2016</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -3402,7 +3402,7 @@
         <v>44</v>
       </c>
       <c r="S12" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C12,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0011.jpg</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -3417,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B13,"0000")</f>
         <v>0012</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3430,7 +3430,7 @@
         <v>82</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E13,", ",F13)</f>
         <v>Río Sucio, Chocó</v>
       </c>
       <c r="H13" s="1">
@@ -3443,23 +3443,23 @@
         <v>42745</v>
       </c>
       <c r="K13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J13,"DD-MM-YYYY")</f>
         <v>10-01-2017</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J13)</f>
         <v>2017</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J13)</f>
         <v>1</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J13)</f>
         <v>10</v>
       </c>
       <c r="O13" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K13,"DD-MMM-YYYY")</f>
         <v>10-Jan-2017</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -3472,7 +3472,7 @@
         <v>19</v>
       </c>
       <c r="S13" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C13,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0012.jpg</v>
       </c>
       <c r="T13" s="1" t="s">
@@ -3487,7 +3487,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B14,"0000")</f>
         <v>0013</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3500,7 +3500,7 @@
         <v>88</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E14,", ",F14)</f>
         <v>Carepa, Antioquia</v>
       </c>
       <c r="H14" s="1">
@@ -3513,23 +3513,23 @@
         <v>42746</v>
       </c>
       <c r="K14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J14,"DD-MM-YYYY")</f>
         <v>11-01-2017</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J14)</f>
         <v>2017</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J14)</f>
         <v>1</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J14)</f>
         <v>11</v>
       </c>
       <c r="O14" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K14,"DD-MMM-YYYY")</f>
         <v>11-Jan-2017</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -3542,7 +3542,7 @@
         <v>19</v>
       </c>
       <c r="S14" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C14,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0013.jpg</v>
       </c>
       <c r="T14" s="1" t="s">
@@ -3557,7 +3557,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B15,"0000")</f>
         <v>0014</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3570,7 +3570,7 @@
         <v>94</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E15,", ",F15)</f>
         <v>Buenaventura, Valle del Cauca</v>
       </c>
       <c r="H15" s="1">
@@ -3583,23 +3583,23 @@
         <v>42752</v>
       </c>
       <c r="K15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J15,"DD-MM-YYYY")</f>
         <v>17-01-2017</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J15)</f>
         <v>2017</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J15)</f>
         <v>1</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J15)</f>
         <v>17</v>
       </c>
       <c r="O15" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K15,"DD-MMM-YYYY")</f>
         <v>17-Jan-2017</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -3612,7 +3612,7 @@
         <v>44</v>
       </c>
       <c r="S15" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C15,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0014.jpg</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -3627,7 +3627,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B16,"0000")</f>
         <v>0015</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3640,7 +3640,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E16,", ",F16)</f>
         <v>Puerto Libertador, Córdoba</v>
       </c>
       <c r="H16" s="1">
@@ -3653,23 +3653,23 @@
         <v>42754</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J16,"DD-MM-YYYY")</f>
         <v>19-01-2017</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J16)</f>
         <v>2017</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J16)</f>
         <v>1</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J16)</f>
         <v>19</v>
       </c>
       <c r="O16" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K16,"DD-MMM-YYYY")</f>
         <v>19-Jan-2017</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -3682,7 +3682,7 @@
         <v>19</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C16,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0015.jpg</v>
       </c>
       <c r="T16" s="1" t="s">
@@ -3697,7 +3697,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B17,"0000")</f>
         <v>0016</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3710,7 +3710,7 @@
         <v>71</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E17,", ",F17)</f>
         <v>Valledupar, Cesar</v>
       </c>
       <c r="H17" s="1">
@@ -3723,23 +3723,23 @@
         <v>42761</v>
       </c>
       <c r="K17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J17,"DD-MM-YYYY")</f>
         <v>26-01-2017</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J17)</f>
         <v>2017</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J17)</f>
         <v>1</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J17)</f>
         <v>26</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K17,"DD-MMM-YYYY")</f>
         <v>26-Jan-2017</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -3752,7 +3752,7 @@
         <v>44</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C17,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0016.jpg</v>
       </c>
       <c r="T17" s="1" t="s">
@@ -3767,7 +3767,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B18,"0000")</f>
         <v>0017</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3780,7 +3780,7 @@
         <v>88</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E18,", ",F18)</f>
         <v>Turbo, Antioquia</v>
       </c>
       <c r="H18" s="1">
@@ -3793,23 +3793,23 @@
         <v>42764</v>
       </c>
       <c r="K18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J18,"DD-MM-YYYY")</f>
         <v>29-01-2017</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J18)</f>
         <v>2017</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J18)</f>
         <v>1</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J18)</f>
         <v>29</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K18,"DD-MMM-YYYY")</f>
         <v>29-Jan-2017</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -3822,7 +3822,7 @@
         <v>19</v>
       </c>
       <c r="S18" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C18,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0017.jpg</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -3837,7 +3837,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B19,"0000")</f>
         <v>0018</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3850,7 +3850,7 @@
         <v>71</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E19,", ",F19)</f>
         <v>El Copey, Cesar</v>
       </c>
       <c r="H19" s="1">
@@ -3863,23 +3863,23 @@
         <v>42770</v>
       </c>
       <c r="K19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J19,"DD-MM-YYYY")</f>
         <v>04-02-2017</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J19)</f>
         <v>2017</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J19)</f>
         <v>2</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J19)</f>
         <v>4</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K19,"DD-MMM-YYYY")</f>
         <v>04-Feb-2017</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -3892,7 +3892,7 @@
         <v>19</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C19,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0018.jpg</v>
       </c>
       <c r="T19" s="1" t="s">
@@ -3907,7 +3907,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B20,"0000")</f>
         <v>0019</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3920,7 +3920,7 @@
         <v>88</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E20,", ",F20)</f>
         <v>Yarumal, Antioquia</v>
       </c>
       <c r="H20" s="1">
@@ -3933,23 +3933,23 @@
         <v>42773</v>
       </c>
       <c r="K20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J20,"DD-MM-YYYY")</f>
         <v>07-02-2017</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J20)</f>
         <v>2017</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J20)</f>
         <v>2</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J20)</f>
         <v>7</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K20,"DD-MMM-YYYY")</f>
         <v>07-Feb-2017</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -3962,7 +3962,7 @@
         <v>44</v>
       </c>
       <c r="S20" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C20,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0019.jpg</v>
       </c>
       <c r="T20" s="1" t="s">
@@ -3977,7 +3977,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B21,"0000")</f>
         <v>0020</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3990,7 +3990,7 @@
         <v>36</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E21,", ",F21)</f>
         <v>Esmeraldas, Cauca</v>
       </c>
       <c r="H21" s="1">
@@ -4003,23 +4003,23 @@
         <v>42784</v>
       </c>
       <c r="K21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J21,"DD-MM-YYYY")</f>
         <v>18-02-2017</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J21)</f>
         <v>2017</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J21)</f>
         <v>2</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J21)</f>
         <v>18</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K21,"DD-MMM-YYYY")</f>
         <v>18-Feb-2017</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -4032,7 +4032,7 @@
         <v>19</v>
       </c>
       <c r="S21" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C21,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0020.jpg</v>
       </c>
       <c r="T21" s="1" t="s">
@@ -4047,7 +4047,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B22,"0000")</f>
         <v>0021</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4060,7 +4060,7 @@
         <v>130</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E22,", ",F22)</f>
         <v>Bogotá, Cundinamarca</v>
       </c>
       <c r="H22" s="1">
@@ -4073,23 +4073,23 @@
         <v>42764</v>
       </c>
       <c r="K22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J22,"DD-MM-YYYY")</f>
         <v>29-01-2017</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J22)</f>
         <v>2017</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J22)</f>
         <v>1</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J22)</f>
         <v>29</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K22,"DD-MMM-YYYY")</f>
         <v>29-Jan-2017</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -4102,7 +4102,7 @@
         <v>19</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C22,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0021.jpg</v>
       </c>
       <c r="T22" s="1" t="s">
@@ -4117,7 +4117,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B23,"0000")</f>
         <v>0022</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4130,7 +4130,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E23,", ",F23)</f>
         <v>Corinto, Cauca</v>
       </c>
       <c r="H23" s="1">
@@ -4143,23 +4143,23 @@
         <v>42792</v>
       </c>
       <c r="K23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J23,"DD-MM-YYYY")</f>
         <v>26-02-2017</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J23)</f>
         <v>2017</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J23)</f>
         <v>2</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J23)</f>
         <v>26</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K23,"DD-MMM-YYYY")</f>
         <v>26-Feb-2017</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -4172,7 +4172,7 @@
         <v>19</v>
       </c>
       <c r="S23" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C23,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0022.jpg</v>
       </c>
       <c r="T23" s="1" t="s">
@@ -4187,7 +4187,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B24,"0000")</f>
         <v>0023</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4200,7 +4200,7 @@
         <v>88</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E24,", ",F24)</f>
         <v>Medellín, Antioquia</v>
       </c>
       <c r="H24" s="1">
@@ -4213,23 +4213,23 @@
         <v>42796</v>
       </c>
       <c r="K24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J24,"DD-MM-YYYY")</f>
         <v>02-03-2017</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J24)</f>
         <v>2017</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J24)</f>
         <v>3</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J24)</f>
         <v>2</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K24,"DD-MMM-YYYY")</f>
         <v>02-Mar-2017</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -4242,7 +4242,7 @@
         <v>44</v>
       </c>
       <c r="S24" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C24,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0023.jpg</v>
       </c>
       <c r="T24" s="1" t="s">
@@ -4257,7 +4257,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B25,"0000")</f>
         <v>0024</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4270,7 +4270,7 @@
         <v>88</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E25,", ",F25)</f>
         <v>Bello, Antioquia</v>
       </c>
       <c r="H25" s="1">
@@ -4283,23 +4283,23 @@
         <v>42796</v>
       </c>
       <c r="K25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J25,"DD-MM-YYYY")</f>
         <v>02-03-2017</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J25)</f>
         <v>2017</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J25)</f>
         <v>3</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J25)</f>
         <v>2</v>
       </c>
       <c r="O25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K25,"DD-MMM-YYYY")</f>
         <v>02-Mar-2017</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -4312,7 +4312,7 @@
         <v>19</v>
       </c>
       <c r="S25" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C25,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0024.jpg</v>
       </c>
       <c r="T25" s="1" t="s">
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B26,"0000")</f>
         <v>0025</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4340,7 +4340,7 @@
         <v>151</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E26,", ",F26)</f>
         <v>Mesetas, Meta</v>
       </c>
       <c r="H26" s="1">
@@ -4353,23 +4353,23 @@
         <v>42799</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J26,"DD-MM-YYYY")</f>
         <v>05-03-2017</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J26)</f>
         <v>2017</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J26)</f>
         <v>3</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J26)</f>
         <v>5</v>
       </c>
       <c r="O26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K26,"DD-MMM-YYYY")</f>
         <v>05-Mar-2017</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -4382,7 +4382,7 @@
         <v>19</v>
       </c>
       <c r="S26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C26,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0025.jpg</v>
       </c>
       <c r="T26" s="1" t="s">
@@ -4397,7 +4397,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B27,"0000")</f>
         <v>0026</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4410,7 +4410,7 @@
         <v>151</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E27,", ",F27)</f>
         <v>Mesetas, Meta</v>
       </c>
       <c r="H27" s="1">
@@ -4423,23 +4423,23 @@
         <v>42800</v>
       </c>
       <c r="K27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J27,"DD-MM-YYYY")</f>
         <v>06-03-2017</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J27)</f>
         <v>2017</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J27)</f>
         <v>3</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J27)</f>
         <v>6</v>
       </c>
       <c r="O27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K27,"DD-MMM-YYYY")</f>
         <v>06-Mar-2017</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -4452,7 +4452,7 @@
         <v>44</v>
       </c>
       <c r="S27" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C27,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0026.jpg</v>
       </c>
       <c r="T27" s="1" t="s">
@@ -4467,7 +4467,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B28,"0000")</f>
         <v>0027</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4480,7 +4480,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E28,", ",F28)</f>
         <v>Corinto, Cauca</v>
       </c>
       <c r="H28" s="1">
@@ -4493,23 +4493,23 @@
         <v>42816</v>
       </c>
       <c r="K28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J28,"DD-MM-YYYY")</f>
         <v>22-03-2017</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J28)</f>
         <v>2017</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J28)</f>
         <v>3</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J28)</f>
         <v>22</v>
       </c>
       <c r="O28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K28,"DD-MMM-YYYY")</f>
         <v>22-Mar-2017</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -4522,7 +4522,7 @@
         <v>19</v>
       </c>
       <c r="S28" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C28,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0027.jpg</v>
       </c>
       <c r="T28" s="1" t="s">
@@ -4537,7 +4537,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B29,"0000")</f>
         <v>0028</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4550,7 +4550,7 @@
         <v>55</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E29,", ",F29)</f>
         <v>San Miguel, Putumayo</v>
       </c>
       <c r="H29" s="1">
@@ -4563,23 +4563,23 @@
         <v>42821</v>
       </c>
       <c r="K29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J29,"DD-MM-YYYY")</f>
         <v>27-03-2017</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J29)</f>
         <v>2017</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J29)</f>
         <v>3</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J29)</f>
         <v>27</v>
       </c>
       <c r="O29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K29,"DD-MMM-YYYY")</f>
         <v>27-Mar-2017</v>
       </c>
       <c r="P29" s="1" t="s">
@@ -4592,7 +4592,7 @@
         <v>19</v>
       </c>
       <c r="S29" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C29,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0028.jpg</v>
       </c>
       <c r="T29" s="1" t="s">
@@ -4607,7 +4607,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B30,"0000")</f>
         <v>0029</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4620,7 +4620,7 @@
         <v>151</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E30,", ",F30)</f>
         <v>Mesetas, Meta</v>
       </c>
       <c r="H30" s="1">
@@ -4633,23 +4633,23 @@
         <v>42827</v>
       </c>
       <c r="K30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J30,"DD-MM-YYYY")</f>
         <v>02-04-2017</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J30)</f>
         <v>2017</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J30)</f>
         <v>4</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J30)</f>
         <v>2</v>
       </c>
       <c r="O30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K30,"DD-MMM-YYYY")</f>
         <v>02-Apr-2017</v>
       </c>
       <c r="P30" s="1" t="s">
@@ -4662,7 +4662,7 @@
         <v>19</v>
       </c>
       <c r="S30" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C30,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0029.jpg</v>
       </c>
       <c r="T30" s="1" t="s">
@@ -4677,7 +4677,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B31,"0000")</f>
         <v>0030</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -4690,7 +4690,7 @@
         <v>88</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E31,", ",F31)</f>
         <v>San Vicente Ferrer, Antioquia</v>
       </c>
       <c r="H31" s="1">
@@ -4703,23 +4703,23 @@
         <v>42845</v>
       </c>
       <c r="K31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J31,"DD-MM-YYYY")</f>
         <v>20-04-2017</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J31)</f>
         <v>2017</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J31)</f>
         <v>4</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J31)</f>
         <v>20</v>
       </c>
       <c r="O31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K31,"DD-MMM-YYYY")</f>
         <v>20-Apr-2017</v>
       </c>
       <c r="P31" s="1" t="s">
@@ -4732,7 +4732,7 @@
         <v>44</v>
       </c>
       <c r="S31" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C31,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0030.jpg</v>
       </c>
       <c r="T31" s="1" t="s">
@@ -4747,7 +4747,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B32,"0000")</f>
         <v>0031</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4760,7 +4760,7 @@
         <v>36</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E32,", ",F32)</f>
         <v>Timbío, Cauca</v>
       </c>
       <c r="H32" s="1">
@@ -4773,23 +4773,23 @@
         <v>42844</v>
       </c>
       <c r="K32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J32,"DD-MM-YYYY")</f>
         <v>19-04-2017</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J32)</f>
         <v>2017</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J32)</f>
         <v>4</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J32)</f>
         <v>19</v>
       </c>
       <c r="O32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K32,"DD-MMM-YYYY")</f>
         <v>19-Apr-2017</v>
       </c>
       <c r="P32" s="1" t="s">
@@ -4802,7 +4802,7 @@
         <v>19</v>
       </c>
       <c r="S32" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C32,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0031.jpg</v>
       </c>
       <c r="T32" s="1" t="s">
@@ -4817,7 +4817,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>+TEXT(B33,"0000")</f>
         <v>0032</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4830,7 +4830,7 @@
         <v>36</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>+CONCATENATE(E33,", ",F33)</f>
         <v>Mercaderes, Cauca</v>
       </c>
       <c r="H33" s="1">
@@ -4843,23 +4843,23 @@
         <v>42852</v>
       </c>
       <c r="K33" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>+TEXT(J33,"DD-MM-YYYY")</f>
         <v>27-04-2017</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="3"/>
+        <f>+YEAR(J33)</f>
         <v>2017</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="4"/>
+        <f>+MONTH(J33)</f>
         <v>4</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="5"/>
+        <f>+DAY(J33)</f>
         <v>27</v>
       </c>
       <c r="O33" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>+TEXT(K33,"DD-MMM-YYYY")</f>
         <v>27-Apr-2017</v>
       </c>
       <c r="P33" s="1" t="s">
@@ -4872,7 +4872,7 @@
         <v>19</v>
       </c>
       <c r="S33" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C33,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0032.jpg</v>
       </c>
       <c r="T33" s="1" t="s">
@@ -4887,7 +4887,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f t="shared" ref="C34:C65" si="8">+TEXT(B34,"0000")</f>
+        <f>+TEXT(B34,"0000")</f>
         <v>0033</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4900,7 +4900,7 @@
         <v>94</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f t="shared" ref="G34:G65" si="9">+CONCATENATE(E34,", ",F34)</f>
+        <f>+CONCATENATE(E34,", ",F34)</f>
         <v>Jamundí, Valle del Cauca</v>
       </c>
       <c r="H34" s="1">
@@ -4913,23 +4913,23 @@
         <v>42859</v>
       </c>
       <c r="K34" s="1" t="str">
-        <f t="shared" ref="K34:K65" si="10">+TEXT(J34,"DD-MM-YYYY")</f>
+        <f>+TEXT(J34,"DD-MM-YYYY")</f>
         <v>04-05-2017</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" ref="L34:L65" si="11">+YEAR(J34)</f>
+        <f>+YEAR(J34)</f>
         <v>2017</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" ref="M34:M65" si="12">+MONTH(J34)</f>
+        <f>+MONTH(J34)</f>
         <v>5</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" ref="N34:N65" si="13">+DAY(J34)</f>
+        <f>+DAY(J34)</f>
         <v>4</v>
       </c>
       <c r="O34" s="3" t="str">
-        <f t="shared" ref="O34:O65" si="14">+TEXT(K34,"DD-MMM-YYYY")</f>
+        <f>+TEXT(K34,"DD-MMM-YYYY")</f>
         <v>04-May-2017</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -4942,7 +4942,7 @@
         <v>19</v>
       </c>
       <c r="S34" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C34,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0033.jpg</v>
       </c>
       <c r="T34" s="1" t="s">
@@ -4957,7 +4957,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B35,"0000")</f>
         <v>0034</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4970,7 +4970,7 @@
         <v>94</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E35,", ",F35)</f>
         <v>Guacarí, Valle del Cauca</v>
       </c>
       <c r="H35" s="1">
@@ -4983,23 +4983,23 @@
         <v>42869</v>
       </c>
       <c r="K35" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J35,"DD-MM-YYYY")</f>
         <v>14-05-2017</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J35)</f>
         <v>2017</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J35)</f>
         <v>5</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J35)</f>
         <v>14</v>
       </c>
       <c r="O35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K35,"DD-MMM-YYYY")</f>
         <v>14-May-2017</v>
       </c>
       <c r="P35" s="1" t="s">
@@ -5012,7 +5012,7 @@
         <v>19</v>
       </c>
       <c r="S35" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C35,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0034.jpg</v>
       </c>
       <c r="T35" s="1" t="s">
@@ -5027,7 +5027,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B36,"0000")</f>
         <v>0035</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -5040,7 +5040,7 @@
         <v>196</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E36,", ",F36)</f>
         <v>Magüí Payán, Nariño</v>
       </c>
       <c r="H36" s="1">
@@ -5053,23 +5053,23 @@
         <v>42873</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J36,"DD-MM-YYYY")</f>
         <v>18-05-2017</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J36)</f>
         <v>2017</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J36)</f>
         <v>5</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J36)</f>
         <v>18</v>
       </c>
       <c r="O36" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K36,"DD-MMM-YYYY")</f>
         <v>18-May-2017</v>
       </c>
       <c r="P36" s="1" t="s">
@@ -5082,7 +5082,7 @@
         <v>19</v>
       </c>
       <c r="S36" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C36,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0035.jpg</v>
       </c>
       <c r="T36" s="1" t="s">
@@ -5097,7 +5097,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B37,"0000")</f>
         <v>0036</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -5110,7 +5110,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E37,", ",F37)</f>
         <v>Malambo, Atlántico</v>
       </c>
       <c r="H37" s="1">
@@ -5123,23 +5123,23 @@
         <v>42862</v>
       </c>
       <c r="K37" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J37,"DD-MM-YYYY")</f>
         <v>07-05-2017</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J37)</f>
         <v>2017</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J37)</f>
         <v>5</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J37)</f>
         <v>7</v>
       </c>
       <c r="O37" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K37,"DD-MMM-YYYY")</f>
         <v>07-May-2017</v>
       </c>
       <c r="P37" s="1" t="s">
@@ -5152,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="S37" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C37,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0036.jpg</v>
       </c>
       <c r="T37" s="1" t="s">
@@ -5167,7 +5167,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B38,"0000")</f>
         <v>0037</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -5180,7 +5180,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E38,", ",F38)</f>
         <v>Buenos Aires, Cauca</v>
       </c>
       <c r="H38" s="1">
@@ -5193,23 +5193,23 @@
         <v>42907</v>
       </c>
       <c r="K38" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J38,"DD-MM-YYYY")</f>
         <v>21-06-2017</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J38)</f>
         <v>2017</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J38)</f>
         <v>6</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J38)</f>
         <v>21</v>
       </c>
       <c r="O38" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K38,"DD-MMM-YYYY")</f>
         <v>21-Jun-2017</v>
       </c>
       <c r="P38" s="1" t="s">
@@ -5222,7 +5222,7 @@
         <v>19</v>
       </c>
       <c r="S38" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C38,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0037.jpg</v>
       </c>
       <c r="T38" s="1" t="s">
@@ -5237,7 +5237,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B39,"0000")</f>
         <v>0038</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -5250,7 +5250,7 @@
         <v>212</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E39,", ",F39)</f>
         <v>Cerrito, Valle</v>
       </c>
       <c r="H39" s="1">
@@ -5263,23 +5263,23 @@
         <v>42917</v>
       </c>
       <c r="K39" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J39,"DD-MM-YYYY")</f>
         <v>01-07-2017</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J39)</f>
         <v>2017</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J39)</f>
         <v>7</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J39)</f>
         <v>1</v>
       </c>
       <c r="O39" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K39,"DD-MMM-YYYY")</f>
         <v>01-Jul-2017</v>
       </c>
       <c r="P39" s="1" t="s">
@@ -5292,7 +5292,7 @@
         <v>19</v>
       </c>
       <c r="S39" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C39,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0038.jpg</v>
       </c>
       <c r="T39" s="1" t="s">
@@ -5307,7 +5307,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B40,"0000")</f>
         <v>0039</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -5320,7 +5320,7 @@
         <v>82</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E40,", ",F40)</f>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H40" s="1">
@@ -5333,23 +5333,23 @@
         <v>42919</v>
       </c>
       <c r="K40" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J40,"DD-MM-YYYY")</f>
         <v>03-07-2017</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J40)</f>
         <v>2017</v>
       </c>
       <c r="M40" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J40)</f>
         <v>7</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J40)</f>
         <v>3</v>
       </c>
       <c r="O40" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K40,"DD-MMM-YYYY")</f>
         <v>03-Jul-2017</v>
       </c>
       <c r="P40" s="1" t="s">
@@ -5362,7 +5362,7 @@
         <v>19</v>
       </c>
       <c r="S40" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C40,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0039.jpg</v>
       </c>
       <c r="T40" s="1" t="s">
@@ -5377,7 +5377,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B41,"0000")</f>
         <v>0040</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -5390,7 +5390,7 @@
         <v>36</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E41,", ",F41)</f>
         <v>Guachené, Cauca</v>
       </c>
       <c r="H41" s="1">
@@ -5403,23 +5403,23 @@
         <v>42930</v>
       </c>
       <c r="K41" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J41,"DD-MM-YYYY")</f>
         <v>14-07-2017</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J41)</f>
         <v>2017</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J41)</f>
         <v>7</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J41)</f>
         <v>14</v>
       </c>
       <c r="O41" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K41,"DD-MMM-YYYY")</f>
         <v>14-Jul-2017</v>
       </c>
       <c r="P41" s="1" t="s">
@@ -5432,7 +5432,7 @@
         <v>19</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C41,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0040.jpg</v>
       </c>
       <c r="T41" s="1" t="s">
@@ -5447,7 +5447,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B42,"0000")</f>
         <v>0041</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -5460,7 +5460,7 @@
         <v>228</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E42,", ",F42)</f>
         <v>Carmen, Norte de Santander</v>
       </c>
       <c r="H42" s="1">
@@ -5473,23 +5473,23 @@
         <v>42932</v>
       </c>
       <c r="K42" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J42,"DD-MM-YYYY")</f>
         <v>16-07-2017</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J42)</f>
         <v>2017</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J42)</f>
         <v>7</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J42)</f>
         <v>16</v>
       </c>
       <c r="O42" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K42,"DD-MMM-YYYY")</f>
         <v>16-Jul-2017</v>
       </c>
       <c r="P42" s="1" t="s">
@@ -5502,7 +5502,7 @@
         <v>19</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C42,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0041.jpg</v>
       </c>
       <c r="T42" s="1" t="s">
@@ -5517,7 +5517,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B43,"0000")</f>
         <v>0042</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -5530,7 +5530,7 @@
         <v>196</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E43,", ",F43)</f>
         <v>El Rosario, Nariño</v>
       </c>
       <c r="H43" s="1">
@@ -5543,23 +5543,23 @@
         <v>42953</v>
       </c>
       <c r="K43" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J43,"DD-MM-YYYY")</f>
         <v>06-08-2017</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J43)</f>
         <v>2017</v>
       </c>
       <c r="M43" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J43)</f>
         <v>8</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J43)</f>
         <v>6</v>
       </c>
       <c r="O43" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K43,"DD-MMM-YYYY")</f>
         <v>06-Aug-2017</v>
       </c>
       <c r="P43" s="1" t="s">
@@ -5572,7 +5572,7 @@
         <v>19</v>
       </c>
       <c r="S43" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C43,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0042.jpg</v>
       </c>
       <c r="T43" s="1" t="s">
@@ -5587,7 +5587,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B44,"0000")</f>
         <v>0043</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -5600,7 +5600,7 @@
         <v>36</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E44,", ",F44)</f>
         <v>Rosas, Cauca</v>
       </c>
       <c r="H44" s="1">
@@ -5613,23 +5613,23 @@
         <v>42956</v>
       </c>
       <c r="K44" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J44,"DD-MM-YYYY")</f>
         <v>09-08-2017</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J44)</f>
         <v>2017</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J44)</f>
         <v>8</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J44)</f>
         <v>9</v>
       </c>
       <c r="O44" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K44,"DD-MMM-YYYY")</f>
         <v>09-Aug-2017</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -5642,7 +5642,7 @@
         <v>44</v>
       </c>
       <c r="S44" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C44,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0043.jpg</v>
       </c>
       <c r="T44" s="1" t="s">
@@ -5657,7 +5657,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B45,"0000")</f>
         <v>0044</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -5670,7 +5670,7 @@
         <v>36</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E45,", ",F45)</f>
         <v>Piamonte, Cauca</v>
       </c>
       <c r="H45" s="1">
@@ -5683,23 +5683,23 @@
         <v>42956</v>
       </c>
       <c r="K45" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J45,"DD-MM-YYYY")</f>
         <v>09-08-2017</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J45)</f>
         <v>2017</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J45)</f>
         <v>8</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J45)</f>
         <v>9</v>
       </c>
       <c r="O45" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K45,"DD-MMM-YYYY")</f>
         <v>09-Aug-2017</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -5712,7 +5712,7 @@
         <v>19</v>
       </c>
       <c r="S45" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C45,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0044.jpg</v>
       </c>
       <c r="T45" s="1" t="s">
@@ -5727,7 +5727,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B46,"0000")</f>
         <v>0045</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5740,7 +5740,7 @@
         <v>82</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E46,", ",F46)</f>
         <v>Riosucio, Chocó</v>
       </c>
       <c r="H46" s="1">
@@ -5753,23 +5753,23 @@
         <v>42964</v>
       </c>
       <c r="K46" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J46,"DD-MM-YYYY")</f>
         <v>17-08-2017</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J46)</f>
         <v>2017</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J46)</f>
         <v>8</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J46)</f>
         <v>17</v>
       </c>
       <c r="O46" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K46,"DD-MMM-YYYY")</f>
         <v>17-Aug-2017</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -5782,7 +5782,7 @@
         <v>19</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C46,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0045.jpg</v>
       </c>
       <c r="T46" s="1" t="s">
@@ -5797,7 +5797,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B47,"0000")</f>
         <v>0046</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -5810,7 +5810,7 @@
         <v>88</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E47,", ",F47)</f>
         <v>San Rafael, Antioquia</v>
       </c>
       <c r="H47" s="1">
@@ -5823,23 +5823,23 @@
         <v>43007</v>
       </c>
       <c r="K47" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J47,"DD-MM-YYYY")</f>
         <v>29-09-2017</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J47)</f>
         <v>2017</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J47)</f>
         <v>9</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J47)</f>
         <v>29</v>
       </c>
       <c r="O47" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K47,"DD-MMM-YYYY")</f>
         <v>29-Sep-2017</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -5852,7 +5852,7 @@
         <v>19</v>
       </c>
       <c r="S47" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C47,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0046.jpg</v>
       </c>
       <c r="T47" s="1" t="s">
@@ -5867,7 +5867,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B48,"0000")</f>
         <v>0047</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -5880,7 +5880,7 @@
         <v>88</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E48,", ",F48)</f>
         <v>Medellín, Antioquia</v>
       </c>
       <c r="H48" s="1">
@@ -5893,23 +5893,23 @@
         <v>43007</v>
       </c>
       <c r="K48" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J48,"DD-MM-YYYY")</f>
         <v>29-09-2017</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J48)</f>
         <v>2017</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J48)</f>
         <v>9</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J48)</f>
         <v>29</v>
       </c>
       <c r="O48" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K48,"DD-MMM-YYYY")</f>
         <v>29-Sep-2017</v>
       </c>
       <c r="P48" s="1" t="s">
@@ -5922,7 +5922,7 @@
         <v>19</v>
       </c>
       <c r="S48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C48,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0047.jpg</v>
       </c>
       <c r="T48" s="1" t="s">
@@ -5937,7 +5937,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B49,"0000")</f>
         <v>0048</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -5950,7 +5950,7 @@
         <v>263</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E49,", ",F49)</f>
         <v>San José del Guaviare, Guaviare</v>
       </c>
       <c r="H49" s="1">
@@ -5963,23 +5963,23 @@
         <v>43011</v>
       </c>
       <c r="K49" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J49,"DD-MM-YYYY")</f>
         <v>03-10-2017</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J49)</f>
         <v>2017</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J49)</f>
         <v>10</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J49)</f>
         <v>3</v>
       </c>
       <c r="O49" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K49,"DD-MMM-YYYY")</f>
         <v>03-Oct-2017</v>
       </c>
       <c r="P49" s="1" t="s">
@@ -5992,7 +5992,7 @@
         <v>19</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C49,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0048.jpg</v>
       </c>
       <c r="T49" s="1" t="s">
@@ -6007,7 +6007,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B50,"0000")</f>
         <v>0049</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -6020,7 +6020,7 @@
         <v>82</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E50,", ",F50)</f>
         <v>Medio Baudó, Chocó</v>
       </c>
       <c r="H50" s="1">
@@ -6033,23 +6033,23 @@
         <v>43015</v>
       </c>
       <c r="K50" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J50,"DD-MM-YYYY")</f>
         <v>07-10-2017</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J50)</f>
         <v>2017</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J50)</f>
         <v>10</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J50)</f>
         <v>7</v>
       </c>
       <c r="O50" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K50,"DD-MMM-YYYY")</f>
         <v>07-Oct-2017</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -6062,7 +6062,7 @@
         <v>19</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C50,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0049.jpg</v>
       </c>
       <c r="T50" s="1" t="s">
@@ -6077,7 +6077,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B51,"0000")</f>
         <v>0050</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -6090,7 +6090,7 @@
         <v>36</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E51,", ",F51)</f>
         <v>Puracé, Cauca</v>
       </c>
       <c r="H51" s="1">
@@ -6103,23 +6103,23 @@
         <v>43016</v>
       </c>
       <c r="K51" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J51,"DD-MM-YYYY")</f>
         <v>08-10-2017</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J51)</f>
         <v>2017</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J51)</f>
         <v>10</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J51)</f>
         <v>8</v>
       </c>
       <c r="O51" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K51,"DD-MMM-YYYY")</f>
         <v>08-Oct-2017</v>
       </c>
       <c r="P51" s="1" t="s">
@@ -6132,7 +6132,7 @@
         <v>44</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C51,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0050.jpg</v>
       </c>
       <c r="T51" s="1" t="s">
@@ -6147,7 +6147,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B52,"0000")</f>
         <v>0051</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -6160,7 +6160,7 @@
         <v>49</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E52,", ",F52)</f>
         <v>Cartagena, Bolívar</v>
       </c>
       <c r="H52" s="1">
@@ -6173,23 +6173,23 @@
         <v>43013</v>
       </c>
       <c r="K52" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J52,"DD-MM-YYYY")</f>
         <v>05-10-2017</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J52)</f>
         <v>2017</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J52)</f>
         <v>10</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J52)</f>
         <v>5</v>
       </c>
       <c r="O52" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K52,"DD-MMM-YYYY")</f>
         <v>05-Oct-2017</v>
       </c>
       <c r="P52" s="1" t="s">
@@ -6202,7 +6202,7 @@
         <v>19</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C52,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0051.jpg</v>
       </c>
       <c r="T52" s="1" t="s">
@@ -6217,7 +6217,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B53,"0000")</f>
         <v>0052</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -6230,7 +6230,7 @@
         <v>196</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E53,", ",F53)</f>
         <v>Tumaco, Nariño</v>
       </c>
       <c r="H53" s="1">
@@ -6243,23 +6243,23 @@
         <v>43025</v>
       </c>
       <c r="K53" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J53,"DD-MM-YYYY")</f>
         <v>17-10-2017</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J53)</f>
         <v>2017</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J53)</f>
         <v>10</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J53)</f>
         <v>17</v>
       </c>
       <c r="O53" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K53,"DD-MMM-YYYY")</f>
         <v>17-Oct-2017</v>
       </c>
       <c r="P53" s="1" t="s">
@@ -6272,7 +6272,7 @@
         <v>19</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C53,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0052.jpg</v>
       </c>
       <c r="T53" s="1" t="s">
@@ -6287,7 +6287,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B54,"0000")</f>
         <v>0053</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -6300,7 +6300,7 @@
         <v>55</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E54,", ",F54)</f>
         <v>Puerto Guzmán, Putumayo</v>
       </c>
       <c r="H54" s="1">
@@ -6313,23 +6313,23 @@
         <v>43027</v>
       </c>
       <c r="K54" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J54,"DD-MM-YYYY")</f>
         <v>19-10-2017</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J54)</f>
         <v>2017</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J54)</f>
         <v>10</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J54)</f>
         <v>19</v>
       </c>
       <c r="O54" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K54,"DD-MMM-YYYY")</f>
         <v>19-Oct-2017</v>
       </c>
       <c r="P54" s="1" t="s">
@@ -6342,7 +6342,7 @@
         <v>19</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C54,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0053.jpg</v>
       </c>
       <c r="T54" s="1" t="s">
@@ -6357,7 +6357,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B55,"0000")</f>
         <v>0054</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -6370,7 +6370,7 @@
         <v>88</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E55,", ",F55)</f>
         <v>Medellín, Antioquia</v>
       </c>
       <c r="H55" s="1">
@@ -6383,23 +6383,23 @@
         <v>43026</v>
       </c>
       <c r="K55" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J55,"DD-MM-YYYY")</f>
         <v>18-10-2017</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J55)</f>
         <v>2017</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J55)</f>
         <v>10</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J55)</f>
         <v>18</v>
       </c>
       <c r="O55" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K55,"DD-MMM-YYYY")</f>
         <v>18-Oct-2017</v>
       </c>
       <c r="P55" s="1" t="s">
@@ -6412,7 +6412,7 @@
         <v>44</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C55,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0054.jpg</v>
       </c>
       <c r="T55" s="1" t="s">
@@ -6427,7 +6427,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B56,"0000")</f>
         <v>0055</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -6440,7 +6440,7 @@
         <v>88</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E56,", ",F56)</f>
         <v>Tarazá, Antioquia</v>
       </c>
       <c r="H56" s="1">
@@ -6453,23 +6453,23 @@
         <v>43030</v>
       </c>
       <c r="K56" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J56,"DD-MM-YYYY")</f>
         <v>22-10-2017</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J56)</f>
         <v>2017</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J56)</f>
         <v>10</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J56)</f>
         <v>22</v>
       </c>
       <c r="O56" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K56,"DD-MMM-YYYY")</f>
         <v>22-Oct-2017</v>
       </c>
       <c r="P56" s="1" t="s">
@@ -6482,7 +6482,7 @@
         <v>19</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C56,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0055.jpg</v>
       </c>
       <c r="T56" s="1" t="s">
@@ -6497,7 +6497,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B57,"0000")</f>
         <v>0056</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -6510,7 +6510,7 @@
         <v>82</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E57,", ",F57)</f>
         <v>Alto Baudó, Chocó</v>
       </c>
       <c r="H57" s="1">
@@ -6523,23 +6523,23 @@
         <v>43032</v>
       </c>
       <c r="K57" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J57,"DD-MM-YYYY")</f>
         <v>24-10-2017</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J57)</f>
         <v>2017</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J57)</f>
         <v>10</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J57)</f>
         <v>24</v>
       </c>
       <c r="O57" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K57,"DD-MMM-YYYY")</f>
         <v>24-Oct-2017</v>
       </c>
       <c r="P57" s="1" t="s">
@@ -6552,7 +6552,7 @@
         <v>19</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C57,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0056.jpg</v>
       </c>
       <c r="T57" s="1" t="s">
@@ -6567,7 +6567,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B58,"0000")</f>
         <v>0057</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -6580,7 +6580,7 @@
         <v>196</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E58,", ",F58)</f>
         <v>Tumaco, Nariño</v>
       </c>
       <c r="H58" s="1">
@@ -6593,23 +6593,23 @@
         <v>43051</v>
       </c>
       <c r="K58" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J58,"DD-MM-YYYY")</f>
         <v>12-11-2017</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J58)</f>
         <v>2017</v>
       </c>
       <c r="M58" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J58)</f>
         <v>11</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J58)</f>
         <v>12</v>
       </c>
       <c r="O58" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K58,"DD-MMM-YYYY")</f>
         <v>12-Nov-2017</v>
       </c>
       <c r="P58" s="1" t="s">
@@ -6622,7 +6622,7 @@
         <v>44</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C58,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0057.jpg</v>
       </c>
       <c r="T58" s="1" t="s">
@@ -6637,7 +6637,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B59,"0000")</f>
         <v>0058</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -6650,7 +6650,7 @@
         <v>312</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E59,", ",F59)</f>
         <v>Belén de Andaquies, Caquetá</v>
       </c>
       <c r="H59" s="1">
@@ -6663,23 +6663,23 @@
         <v>43064</v>
       </c>
       <c r="K59" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J59,"DD-MM-YYYY")</f>
         <v>25-11-2017</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J59)</f>
         <v>2017</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J59)</f>
         <v>11</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J59)</f>
         <v>25</v>
       </c>
       <c r="O59" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K59,"DD-MMM-YYYY")</f>
         <v>25-Nov-2017</v>
       </c>
       <c r="P59" s="1" t="s">
@@ -6692,7 +6692,7 @@
         <v>19</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C59,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0058.jpg</v>
       </c>
       <c r="T59" s="1" t="s">
@@ -6707,7 +6707,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B60,"0000")</f>
         <v>0059</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -6720,7 +6720,7 @@
         <v>82</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E60,", ",F60)</f>
         <v>Riosucio, Chocó</v>
       </c>
       <c r="H60" s="1">
@@ -6733,23 +6733,23 @@
         <v>43065</v>
       </c>
       <c r="K60" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J60,"DD-MM-YYYY")</f>
         <v>26-11-2017</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J60)</f>
         <v>2017</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J60)</f>
         <v>11</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J60)</f>
         <v>26</v>
       </c>
       <c r="O60" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K60,"DD-MMM-YYYY")</f>
         <v>26-Nov-2017</v>
       </c>
       <c r="P60" s="1" t="s">
@@ -6762,7 +6762,7 @@
         <v>19</v>
       </c>
       <c r="S60" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C60,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0059.jpg</v>
       </c>
       <c r="T60" s="1" t="s">
@@ -6777,7 +6777,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B61,"0000")</f>
         <v>0060</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -6790,7 +6790,7 @@
         <v>196</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E61,", ",F61)</f>
         <v>Magüí Payán, Nariño</v>
       </c>
       <c r="H61" s="1">
@@ -6803,23 +6803,23 @@
         <v>43069</v>
       </c>
       <c r="K61" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J61,"DD-MM-YYYY")</f>
         <v>30-11-2017</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J61)</f>
         <v>2017</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J61)</f>
         <v>11</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J61)</f>
         <v>30</v>
       </c>
       <c r="O61" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K61,"DD-MMM-YYYY")</f>
         <v>30-Nov-2017</v>
       </c>
       <c r="P61" s="1" t="s">
@@ -6832,7 +6832,7 @@
         <v>19</v>
       </c>
       <c r="S61" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C61,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0060.jpg</v>
       </c>
       <c r="T61" s="1" t="s">
@@ -6847,7 +6847,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B62,"0000")</f>
         <v>0061</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -6860,7 +6860,7 @@
         <v>55</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E62,", ",F62)</f>
         <v>Puerto Asís, Putumayo</v>
       </c>
       <c r="H62" s="1">
@@ -6873,23 +6873,23 @@
         <v>43073</v>
       </c>
       <c r="K62" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J62,"DD-MM-YYYY")</f>
         <v>04-12-2017</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J62)</f>
         <v>2017</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J62)</f>
         <v>12</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J62)</f>
         <v>4</v>
       </c>
       <c r="O62" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K62,"DD-MMM-YYYY")</f>
         <v>04-Dec-2017</v>
       </c>
       <c r="P62" s="1" t="s">
@@ -6902,7 +6902,7 @@
         <v>19</v>
       </c>
       <c r="S62" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C62,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0061.jpg</v>
       </c>
       <c r="T62" s="1" t="s">
@@ -6917,7 +6917,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B63,"0000")</f>
         <v>0062</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -6930,7 +6930,7 @@
         <v>82</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E63,", ",F63)</f>
         <v>Riosucio, Chocó</v>
       </c>
       <c r="H63" s="1">
@@ -6943,23 +6943,23 @@
         <v>43077</v>
       </c>
       <c r="K63" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J63,"DD-MM-YYYY")</f>
         <v>08-12-2017</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J63)</f>
         <v>2017</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J63)</f>
         <v>12</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J63)</f>
         <v>8</v>
       </c>
       <c r="O63" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K63,"DD-MMM-YYYY")</f>
         <v>08-Dec-2017</v>
       </c>
       <c r="P63" s="1" t="s">
@@ -6972,7 +6972,7 @@
         <v>19</v>
       </c>
       <c r="S63" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C63,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0062.jpg</v>
       </c>
       <c r="T63" s="1" t="s">
@@ -6987,7 +6987,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B64,"0000")</f>
         <v>0063</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -7000,7 +7000,7 @@
         <v>332</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E64,", ",F64)</f>
         <v>Pivijay, Magdalena</v>
       </c>
       <c r="H64" s="1">
@@ -7013,23 +7013,23 @@
         <v>43085</v>
       </c>
       <c r="K64" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J64,"DD-MM-YYYY")</f>
         <v>16-12-2017</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J64)</f>
         <v>2017</v>
       </c>
       <c r="M64" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J64)</f>
         <v>12</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J64)</f>
         <v>16</v>
       </c>
       <c r="O64" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K64,"DD-MMM-YYYY")</f>
         <v>16-Dec-2017</v>
       </c>
       <c r="P64" s="1" t="s">
@@ -7042,7 +7042,7 @@
         <v>19</v>
       </c>
       <c r="S64" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C64,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0063.jpg</v>
       </c>
       <c r="T64" s="1" t="s">
@@ -7057,7 +7057,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>+TEXT(B65,"0000")</f>
         <v>0064</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -7070,7 +7070,7 @@
         <v>36</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>+CONCATENATE(E65,", ",F65)</f>
         <v>Patía, Cauca</v>
       </c>
       <c r="H65" s="1">
@@ -7083,23 +7083,23 @@
         <v>43087</v>
       </c>
       <c r="K65" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>+TEXT(J65,"DD-MM-YYYY")</f>
         <v>18-12-2017</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="11"/>
+        <f>+YEAR(J65)</f>
         <v>2017</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="12"/>
+        <f>+MONTH(J65)</f>
         <v>12</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="13"/>
+        <f>+DAY(J65)</f>
         <v>18</v>
       </c>
       <c r="O65" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>+TEXT(K65,"DD-MMM-YYYY")</f>
         <v>18-Dec-2017</v>
       </c>
       <c r="P65" s="1" t="s">
@@ -7112,7 +7112,7 @@
         <v>19</v>
       </c>
       <c r="S65" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C65,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0064.jpg</v>
       </c>
       <c r="T65" s="1" t="s">
@@ -7127,7 +7127,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C97" si="15">+TEXT(B66,"0000")</f>
+        <f>+TEXT(B66,"0000")</f>
         <v>0065</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -7140,7 +7140,7 @@
         <v>55</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f t="shared" ref="G66:G97" si="16">+CONCATENATE(E66,", ",F66)</f>
+        <f>+CONCATENATE(E66,", ",F66)</f>
         <v>Puerto Leguízamo, Putumayo</v>
       </c>
       <c r="H66" s="1">
@@ -7153,23 +7153,23 @@
         <v>43089</v>
       </c>
       <c r="K66" s="1" t="str">
-        <f t="shared" ref="K66:K97" si="17">+TEXT(J66,"DD-MM-YYYY")</f>
+        <f>+TEXT(J66,"DD-MM-YYYY")</f>
         <v>20-12-2017</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" ref="L66:L97" si="18">+YEAR(J66)</f>
+        <f>+YEAR(J66)</f>
         <v>2017</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" ref="M66:M97" si="19">+MONTH(J66)</f>
+        <f>+MONTH(J66)</f>
         <v>12</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" ref="N66:N97" si="20">+DAY(J66)</f>
+        <f>+DAY(J66)</f>
         <v>20</v>
       </c>
       <c r="O66" s="3" t="str">
-        <f t="shared" ref="O66:O97" si="21">+TEXT(K66,"DD-MMM-YYYY")</f>
+        <f>+TEXT(K66,"DD-MMM-YYYY")</f>
         <v>20-Dec-2017</v>
       </c>
       <c r="P66" s="1" t="s">
@@ -7182,7 +7182,7 @@
         <v>19</v>
       </c>
       <c r="S66" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C66,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0065.jpg</v>
       </c>
       <c r="T66" s="1" t="s">
@@ -7197,7 +7197,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B67,"0000")</f>
         <v>0066</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -7210,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E67,", ",F67)</f>
         <v>Tierralta, Córdoba</v>
       </c>
       <c r="H67" s="1">
@@ -7223,23 +7223,23 @@
         <v>43093</v>
       </c>
       <c r="K67" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J67,"DD-MM-YYYY")</f>
         <v>24-12-2017</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J67)</f>
         <v>2017</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J67)</f>
         <v>12</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J67)</f>
         <v>24</v>
       </c>
       <c r="O67" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K67,"DD-MMM-YYYY")</f>
         <v>24-Dec-2017</v>
       </c>
       <c r="P67" s="1" t="s">
@@ -7252,7 +7252,7 @@
         <v>19</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f t="shared" ref="S67:S104" si="22">+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C67,".jpg"),)</f>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C67,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0066.jpg</v>
       </c>
       <c r="T67" s="1" t="s">
@@ -7267,7 +7267,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B68,"0000")</f>
         <v>0067</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -7280,7 +7280,7 @@
         <v>151</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E68,", ",F68)</f>
         <v>Cumaral, Meta</v>
       </c>
       <c r="H68" s="1">
@@ -7293,23 +7293,23 @@
         <v>43098</v>
       </c>
       <c r="K68" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J68,"DD-MM-YYYY")</f>
         <v>29-12-2017</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J68)</f>
         <v>2017</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J68)</f>
         <v>12</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J68)</f>
         <v>29</v>
       </c>
       <c r="O68" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K68,"DD-MMM-YYYY")</f>
         <v>29-Dec-2017</v>
       </c>
       <c r="P68" s="1" t="s">
@@ -7322,7 +7322,7 @@
         <v>19</v>
       </c>
       <c r="S68" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C68,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0067.jpg</v>
       </c>
       <c r="T68" s="1" t="s">
@@ -7337,7 +7337,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B69,"0000")</f>
         <v>0068</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -7350,7 +7350,7 @@
         <v>88</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E69,", ",F69)</f>
         <v>Yondó, Antioquia</v>
       </c>
       <c r="H69" s="1">
@@ -7363,23 +7363,23 @@
         <v>43117</v>
       </c>
       <c r="K69" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J69,"DD-MM-YYYY")</f>
         <v>17-01-2018</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J69)</f>
         <v>2018</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J69)</f>
         <v>1</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J69)</f>
         <v>17</v>
       </c>
       <c r="O69" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K69,"DD-MMM-YYYY")</f>
         <v>17-Jan-2018</v>
       </c>
       <c r="P69" s="1" t="s">
@@ -7392,7 +7392,7 @@
         <v>19</v>
       </c>
       <c r="S69" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C69,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0068.jpg</v>
       </c>
       <c r="T69" s="1" t="s">
@@ -7407,7 +7407,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B70,"0000")</f>
         <v>0069</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -7420,7 +7420,7 @@
         <v>42</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E70,", ",F70)</f>
         <v>San José de Uré, Córdoba</v>
       </c>
       <c r="H70" s="1">
@@ -7433,23 +7433,23 @@
         <v>43118</v>
       </c>
       <c r="K70" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J70,"DD-MM-YYYY")</f>
         <v>18-01-2018</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J70)</f>
         <v>2018</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J70)</f>
         <v>1</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J70)</f>
         <v>18</v>
       </c>
       <c r="O70" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K70,"DD-MMM-YYYY")</f>
         <v>18-Jan-2018</v>
       </c>
       <c r="P70" s="1" t="s">
@@ -7462,7 +7462,7 @@
         <v>19</v>
       </c>
       <c r="S70" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C70,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0069.jpg</v>
       </c>
       <c r="T70" s="1" t="s">
@@ -7477,7 +7477,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B71,"0000")</f>
         <v>0070</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -7490,7 +7490,7 @@
         <v>36</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E71,", ",F71)</f>
         <v>Santander de Quilichao, Cauca</v>
       </c>
       <c r="H71" s="1">
@@ -7503,23 +7503,23 @@
         <v>43123</v>
       </c>
       <c r="K71" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J71,"DD-MM-YYYY")</f>
         <v>23-01-2018</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J71)</f>
         <v>2018</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J71)</f>
         <v>1</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J71)</f>
         <v>23</v>
       </c>
       <c r="O71" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K71,"DD-MMM-YYYY")</f>
         <v>23-Jan-2018</v>
       </c>
       <c r="P71" s="1" t="s">
@@ -7532,7 +7532,7 @@
         <v>19</v>
       </c>
       <c r="S71" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C71,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0070.jpg</v>
       </c>
       <c r="T71" s="1" t="s">
@@ -7547,7 +7547,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B72,"0000")</f>
         <v>0071</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -7560,7 +7560,7 @@
         <v>82</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E72,", ",F72)</f>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H72" s="1">
@@ -7573,23 +7573,23 @@
         <v>43127</v>
       </c>
       <c r="K72" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J72,"DD-MM-YYYY")</f>
         <v>27-01-2018</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J72)</f>
         <v>2018</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J72)</f>
         <v>1</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J72)</f>
         <v>27</v>
       </c>
       <c r="O72" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K72,"DD-MMM-YYYY")</f>
         <v>27-Jan-2018</v>
       </c>
       <c r="P72" s="1" t="s">
@@ -7602,7 +7602,7 @@
         <v>19</v>
       </c>
       <c r="S72" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C72,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0071.jpg</v>
       </c>
       <c r="T72" s="1" t="s">
@@ -7617,7 +7617,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B73,"0000")</f>
         <v>0072</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -7630,7 +7630,7 @@
         <v>94</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E73,", ",F73)</f>
         <v>Buenaventura, Valle del Cauca</v>
       </c>
       <c r="H73" s="1">
@@ -7643,23 +7643,23 @@
         <v>43127</v>
       </c>
       <c r="K73" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J73,"DD-MM-YYYY")</f>
         <v>27-01-2018</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J73)</f>
         <v>2018</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J73)</f>
         <v>1</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J73)</f>
         <v>27</v>
       </c>
       <c r="O73" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K73,"DD-MMM-YYYY")</f>
         <v>27-Jan-2018</v>
       </c>
       <c r="P73" s="1" t="s">
@@ -7672,7 +7672,7 @@
         <v>19</v>
       </c>
       <c r="S73" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C73,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0072.jpg</v>
       </c>
       <c r="T73" s="1" t="s">
@@ -7687,7 +7687,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B74,"0000")</f>
         <v>0073</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -7700,7 +7700,7 @@
         <v>49</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E74,", ",F74)</f>
         <v>Cantagallo, Bolívar</v>
       </c>
       <c r="H74" s="1">
@@ -7713,23 +7713,23 @@
         <v>43127</v>
       </c>
       <c r="K74" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J74,"DD-MM-YYYY")</f>
         <v>27-01-2018</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J74)</f>
         <v>2018</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J74)</f>
         <v>1</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J74)</f>
         <v>27</v>
       </c>
       <c r="O74" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K74,"DD-MMM-YYYY")</f>
         <v>27-Jan-2018</v>
       </c>
       <c r="P74" s="1" t="s">
@@ -7742,7 +7742,7 @@
         <v>19</v>
       </c>
       <c r="S74" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C74,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0073.jpg</v>
       </c>
       <c r="T74" s="1" t="s">
@@ -7757,7 +7757,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B75,"0000")</f>
         <v>0074</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -7770,7 +7770,7 @@
         <v>386</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E75,", ",F75)</f>
         <v>Pueblo Rico, Risaralda</v>
       </c>
       <c r="H75" s="1">
@@ -7783,23 +7783,23 @@
         <v>43132</v>
       </c>
       <c r="K75" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J75,"DD-MM-YYYY")</f>
         <v>01-02-2018</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J75)</f>
         <v>2018</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J75)</f>
         <v>2</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J75)</f>
         <v>1</v>
       </c>
       <c r="O75" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K75,"DD-MMM-YYYY")</f>
         <v>01-Feb-2018</v>
       </c>
       <c r="P75" s="1" t="s">
@@ -7812,7 +7812,7 @@
         <v>44</v>
       </c>
       <c r="S75" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C75,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0074.jpg</v>
       </c>
       <c r="T75" s="1" t="s">
@@ -7827,7 +7827,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B76,"0000")</f>
         <v>0075</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -7840,7 +7840,7 @@
         <v>228</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E76,", ",F76)</f>
         <v>Tibú, Norte de Santander</v>
       </c>
       <c r="H76" s="1">
@@ -7853,23 +7853,23 @@
         <v>43138</v>
       </c>
       <c r="K76" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J76,"DD-MM-YYYY")</f>
         <v>07-02-2018</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J76)</f>
         <v>2018</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J76)</f>
         <v>2</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J76)</f>
         <v>7</v>
       </c>
       <c r="O76" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K76,"DD-MMM-YYYY")</f>
         <v>07-Feb-2018</v>
       </c>
       <c r="P76" s="1" t="s">
@@ -7882,7 +7882,7 @@
         <v>44</v>
       </c>
       <c r="S76" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C76,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0075.jpg</v>
       </c>
       <c r="T76" s="1" t="s">
@@ -7897,7 +7897,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B77,"0000")</f>
         <v>0076</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -7910,7 +7910,7 @@
         <v>36</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E77,", ",F77)</f>
         <v>Guapi, Cauca</v>
       </c>
       <c r="H77" s="1">
@@ -7923,23 +7923,23 @@
         <v>43141</v>
       </c>
       <c r="K77" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J77,"DD-MM-YYYY")</f>
         <v>10-02-2018</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J77)</f>
         <v>2018</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J77)</f>
         <v>2</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J77)</f>
         <v>10</v>
       </c>
       <c r="O77" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K77,"DD-MMM-YYYY")</f>
         <v>10-Feb-2018</v>
       </c>
       <c r="P77" s="1" t="s">
@@ -7952,7 +7952,7 @@
         <v>19</v>
       </c>
       <c r="S77" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C77,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0076.jpg</v>
       </c>
       <c r="T77" s="1" t="s">
@@ -7967,7 +7967,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B78,"0000")</f>
         <v>0077</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -7980,7 +7980,7 @@
         <v>228</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E78,", ",F78)</f>
         <v>El Tarra, Norte de Santander</v>
       </c>
       <c r="H78" s="1">
@@ -7993,23 +7993,23 @@
         <v>43148</v>
       </c>
       <c r="K78" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J78,"DD-MM-YYYY")</f>
         <v>17-02-2018</v>
       </c>
       <c r="L78" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J78)</f>
         <v>2018</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J78)</f>
         <v>2</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J78)</f>
         <v>17</v>
       </c>
       <c r="O78" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K78,"DD-MMM-YYYY")</f>
         <v>17-Feb-2018</v>
       </c>
       <c r="P78" s="1" t="s">
@@ -8022,7 +8022,7 @@
         <v>19</v>
       </c>
       <c r="S78" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C78,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0077.jpg</v>
       </c>
       <c r="T78" s="1" t="s">
@@ -8037,7 +8037,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B79,"0000")</f>
         <v>0078</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -8050,7 +8050,7 @@
         <v>42</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E79,", ",F79)</f>
         <v>San José de Uré, Córdoba</v>
       </c>
       <c r="H79" s="1">
@@ -8063,23 +8063,23 @@
         <v>43170</v>
       </c>
       <c r="K79" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J79,"DD-MM-YYYY")</f>
         <v>11-03-2018</v>
       </c>
       <c r="L79" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J79)</f>
         <v>2018</v>
       </c>
       <c r="M79" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J79)</f>
         <v>3</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J79)</f>
         <v>11</v>
       </c>
       <c r="O79" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K79,"DD-MMM-YYYY")</f>
         <v>11-Mar-2018</v>
       </c>
       <c r="P79" s="1" t="s">
@@ -8092,7 +8092,7 @@
         <v>19</v>
       </c>
       <c r="S79" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C79,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0078.jpg</v>
       </c>
       <c r="T79" s="1" t="s">
@@ -8107,7 +8107,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B80,"0000")</f>
         <v>0079</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -8120,7 +8120,7 @@
         <v>82</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E80,", ",F80)</f>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H80" s="1">
@@ -8133,23 +8133,23 @@
         <v>43177</v>
       </c>
       <c r="K80" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J80,"DD-MM-YYYY")</f>
         <v>18-03-2018</v>
       </c>
       <c r="L80" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J80)</f>
         <v>2018</v>
       </c>
       <c r="M80" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J80)</f>
         <v>3</v>
       </c>
       <c r="N80" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J80)</f>
         <v>18</v>
       </c>
       <c r="O80" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K80,"DD-MMM-YYYY")</f>
         <v>18-Mar-2018</v>
       </c>
       <c r="P80" s="1" t="s">
@@ -8162,7 +8162,7 @@
         <v>19</v>
       </c>
       <c r="S80" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C80,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0079.jpg</v>
       </c>
       <c r="T80" s="1" t="s">
@@ -8177,7 +8177,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B81,"0000")</f>
         <v>0080</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -8190,7 +8190,7 @@
         <v>88</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E81,", ",F81)</f>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H81" s="1">
@@ -8203,23 +8203,23 @@
         <v>43181</v>
       </c>
       <c r="K81" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J81,"DD-MM-YYYY")</f>
         <v>22-03-2018</v>
       </c>
       <c r="L81" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J81)</f>
         <v>2018</v>
       </c>
       <c r="M81" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J81)</f>
         <v>3</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J81)</f>
         <v>22</v>
       </c>
       <c r="O81" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K81,"DD-MMM-YYYY")</f>
         <v>22-Mar-2018</v>
       </c>
       <c r="P81" s="1" t="s">
@@ -8232,7 +8232,7 @@
         <v>19</v>
       </c>
       <c r="S81" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C81,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0080.jpg</v>
       </c>
       <c r="T81" s="1" t="s">
@@ -8247,7 +8247,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B82,"0000")</f>
         <v>0081</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -8260,7 +8260,7 @@
         <v>151</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E82,", ",F82)</f>
         <v>Mapiripán, Meta</v>
       </c>
       <c r="H82" s="1">
@@ -8273,23 +8273,23 @@
         <v>43189</v>
       </c>
       <c r="K82" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J82,"DD-MM-YYYY")</f>
         <v>30-03-2018</v>
       </c>
       <c r="L82" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J82)</f>
         <v>2018</v>
       </c>
       <c r="M82" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J82)</f>
         <v>3</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J82)</f>
         <v>30</v>
       </c>
       <c r="O82" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K82,"DD-MMM-YYYY")</f>
         <v>30-Mar-2018</v>
       </c>
       <c r="P82" s="1" t="s">
@@ -8302,7 +8302,7 @@
         <v>44</v>
       </c>
       <c r="S82" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C82,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0081.jpg</v>
       </c>
       <c r="T82" s="1" t="s">
@@ -8317,7 +8317,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B83,"0000")</f>
         <v>0082</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -8330,7 +8330,7 @@
         <v>36</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E83,", ",F83)</f>
         <v>Rosas, Cauca</v>
       </c>
       <c r="H83" s="1">
@@ -8343,23 +8343,23 @@
         <v>43181</v>
       </c>
       <c r="K83" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J83,"DD-MM-YYYY")</f>
         <v>22-03-2018</v>
       </c>
       <c r="L83" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J83)</f>
         <v>2018</v>
       </c>
       <c r="M83" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J83)</f>
         <v>3</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J83)</f>
         <v>22</v>
       </c>
       <c r="O83" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K83,"DD-MMM-YYYY")</f>
         <v>22-Mar-2018</v>
       </c>
       <c r="P83" s="1" t="s">
@@ -8372,7 +8372,7 @@
         <v>19</v>
       </c>
       <c r="S83" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C83,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0082.jpg</v>
       </c>
       <c r="T83" s="1" t="s">
@@ -8387,7 +8387,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B84,"0000")</f>
         <v>0083</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -8400,7 +8400,7 @@
         <v>82</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E84,", ",F84)</f>
         <v>San José del Palmar, Chocó</v>
       </c>
       <c r="H84" s="1">
@@ -8413,23 +8413,23 @@
         <v>43200</v>
       </c>
       <c r="K84" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J84,"DD-MM-YYYY")</f>
         <v>10-04-2018</v>
       </c>
       <c r="L84" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J84)</f>
         <v>2018</v>
       </c>
       <c r="M84" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J84)</f>
         <v>4</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J84)</f>
         <v>10</v>
       </c>
       <c r="O84" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K84,"DD-MMM-YYYY")</f>
         <v>10-Apr-2018</v>
       </c>
       <c r="P84" s="1" t="s">
@@ -8442,7 +8442,7 @@
         <v>19</v>
       </c>
       <c r="S84" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C84,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0083.jpg</v>
       </c>
       <c r="T84" s="1" t="s">
@@ -8457,7 +8457,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B85,"0000")</f>
         <v>0084</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -8470,7 +8470,7 @@
         <v>88</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E85,", ",F85)</f>
         <v>San Pedro de Urabá, Antioquia</v>
       </c>
       <c r="H85" s="1">
@@ -8483,23 +8483,23 @@
         <v>43210</v>
       </c>
       <c r="K85" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J85,"DD-MM-YYYY")</f>
         <v>20-04-2018</v>
       </c>
       <c r="L85" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J85)</f>
         <v>2018</v>
       </c>
       <c r="M85" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J85)</f>
         <v>4</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J85)</f>
         <v>20</v>
       </c>
       <c r="O85" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K85,"DD-MMM-YYYY")</f>
         <v>20-Apr-2018</v>
       </c>
       <c r="P85" s="1" t="s">
@@ -8512,7 +8512,7 @@
         <v>19</v>
       </c>
       <c r="S85" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C85,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0084.jpg</v>
       </c>
       <c r="T85" s="1" t="s">
@@ -8527,7 +8527,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B86,"0000")</f>
         <v>0085</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -8540,7 +8540,7 @@
         <v>438</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E86,", ",F86)</f>
         <v>Arauquita, Arauca</v>
       </c>
       <c r="H86" s="1">
@@ -8553,23 +8553,23 @@
         <v>43222</v>
       </c>
       <c r="K86" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J86,"DD-MM-YYYY")</f>
         <v>02-05-2018</v>
       </c>
       <c r="L86" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J86)</f>
         <v>2018</v>
       </c>
       <c r="M86" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J86)</f>
         <v>5</v>
       </c>
       <c r="N86" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J86)</f>
         <v>2</v>
       </c>
       <c r="O86" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K86,"DD-MMM-YYYY")</f>
         <v>02-May-2018</v>
       </c>
       <c r="P86" s="1" t="s">
@@ -8582,7 +8582,7 @@
         <v>44</v>
       </c>
       <c r="S86" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C86,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0085.jpg</v>
       </c>
       <c r="T86" s="1" t="s">
@@ -8597,7 +8597,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B87,"0000")</f>
         <v>0086</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -8610,7 +8610,7 @@
         <v>88</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E87,", ",F87)</f>
         <v>Valdivia, Antioquia</v>
       </c>
       <c r="H87" s="1">
@@ -8623,23 +8623,23 @@
         <v>43222</v>
       </c>
       <c r="K87" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J87,"DD-MM-YYYY")</f>
         <v>02-05-2018</v>
       </c>
       <c r="L87" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J87)</f>
         <v>2018</v>
       </c>
       <c r="M87" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J87)</f>
         <v>5</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J87)</f>
         <v>2</v>
       </c>
       <c r="O87" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K87,"DD-MMM-YYYY")</f>
         <v>02-May-2018</v>
       </c>
       <c r="P87" s="1" t="s">
@@ -8652,7 +8652,7 @@
         <v>19</v>
       </c>
       <c r="S87" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C87,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0086.jpg</v>
       </c>
       <c r="T87" s="1" t="s">
@@ -8667,7 +8667,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B88,"0000")</f>
         <v>0087</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -8680,7 +8680,7 @@
         <v>36</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E88,", ",F88)</f>
         <v>Corinto, Cauca</v>
       </c>
       <c r="H88" s="1">
@@ -8693,23 +8693,23 @@
         <v>43235</v>
       </c>
       <c r="K88" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J88,"DD-MM-YYYY")</f>
         <v>15-05-2018</v>
       </c>
       <c r="L88" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J88)</f>
         <v>2018</v>
       </c>
       <c r="M88" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J88)</f>
         <v>5</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J88)</f>
         <v>15</v>
       </c>
       <c r="O88" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K88,"DD-MMM-YYYY")</f>
         <v>15-May-2018</v>
       </c>
       <c r="P88" s="1" t="s">
@@ -8722,7 +8722,7 @@
         <v>19</v>
       </c>
       <c r="S88" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C88,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0087.jpg</v>
       </c>
       <c r="T88" s="1" t="s">
@@ -8737,7 +8737,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B89,"0000")</f>
         <v>0088</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -8750,7 +8750,7 @@
         <v>453</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E89,", ",F89)</f>
         <v>La Argentina, Huila</v>
       </c>
       <c r="H89" s="1">
@@ -8763,23 +8763,23 @@
         <v>43247</v>
       </c>
       <c r="K89" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J89,"DD-MM-YYYY")</f>
         <v>27-05-2018</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J89)</f>
         <v>2018</v>
       </c>
       <c r="M89" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J89)</f>
         <v>5</v>
       </c>
       <c r="N89" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J89)</f>
         <v>27</v>
       </c>
       <c r="O89" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K89,"DD-MMM-YYYY")</f>
         <v>27-May-2018</v>
       </c>
       <c r="P89" s="1" t="s">
@@ -8792,7 +8792,7 @@
         <v>19</v>
       </c>
       <c r="S89" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C89,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0088.jpg</v>
       </c>
       <c r="T89" s="1" t="s">
@@ -8807,7 +8807,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B90,"0000")</f>
         <v>0089</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -8820,7 +8820,7 @@
         <v>196</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E90,", ",F90)</f>
         <v>Olaya Herrera, Nariño</v>
       </c>
       <c r="H90" s="1">
@@ -8833,23 +8833,23 @@
         <v>43253</v>
       </c>
       <c r="K90" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J90,"DD-MM-YYYY")</f>
         <v>02-06-2018</v>
       </c>
       <c r="L90" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J90)</f>
         <v>2018</v>
       </c>
       <c r="M90" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J90)</f>
         <v>6</v>
       </c>
       <c r="N90" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J90)</f>
         <v>2</v>
       </c>
       <c r="O90" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K90,"DD-MMM-YYYY")</f>
         <v>02-Jun-2018</v>
       </c>
       <c r="P90" s="1" t="s">
@@ -8862,7 +8862,7 @@
         <v>19</v>
       </c>
       <c r="S90" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C90,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0089.jpg</v>
       </c>
       <c r="T90" s="1" t="s">
@@ -8877,7 +8877,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B91,"0000")</f>
         <v>0090</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -8890,7 +8890,7 @@
         <v>228</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E91,", ",F91)</f>
         <v>San Calixto, Norte de Santander</v>
       </c>
       <c r="H91" s="1">
@@ -8903,23 +8903,23 @@
         <v>43130</v>
       </c>
       <c r="K91" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J91,"DD-MM-YYYY")</f>
         <v>30-01-2018</v>
       </c>
       <c r="L91" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J91)</f>
         <v>2018</v>
       </c>
       <c r="M91" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J91)</f>
         <v>1</v>
       </c>
       <c r="N91" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J91)</f>
         <v>30</v>
       </c>
       <c r="O91" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K91,"DD-MMM-YYYY")</f>
         <v>30-Jan-2018</v>
       </c>
       <c r="P91" s="1" t="s">
@@ -8932,7 +8932,7 @@
         <v>44</v>
       </c>
       <c r="S91" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C91,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0090.jpg</v>
       </c>
       <c r="T91" s="1" t="s">
@@ -8947,7 +8947,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B92,"0000")</f>
         <v>0091</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -8960,7 +8960,7 @@
         <v>55</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E92,", ",F92)</f>
         <v>Valle del Guamuez, Putumayo</v>
       </c>
       <c r="H92" s="1">
@@ -8973,23 +8973,23 @@
         <v>43262</v>
       </c>
       <c r="K92" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J92,"DD-MM-YYYY")</f>
         <v>11-06-2018</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J92)</f>
         <v>2018</v>
       </c>
       <c r="M92" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J92)</f>
         <v>6</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J92)</f>
         <v>11</v>
       </c>
       <c r="O92" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K92,"DD-MMM-YYYY")</f>
         <v>11-Jun-2018</v>
       </c>
       <c r="P92" s="1" t="s">
@@ -9002,7 +9002,7 @@
         <v>19</v>
       </c>
       <c r="S92" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C92,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0091.jpg</v>
       </c>
       <c r="T92" s="1" t="s">
@@ -9017,7 +9017,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B93,"0000")</f>
         <v>0092</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -9030,7 +9030,7 @@
         <v>88</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E93,", ",F93)</f>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H93" s="1">
@@ -9043,23 +9043,23 @@
         <v>43263</v>
       </c>
       <c r="K93" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J93,"DD-MM-YYYY")</f>
         <v>12-06-2018</v>
       </c>
       <c r="L93" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J93)</f>
         <v>2018</v>
       </c>
       <c r="M93" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J93)</f>
         <v>6</v>
       </c>
       <c r="N93" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J93)</f>
         <v>12</v>
       </c>
       <c r="O93" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K93,"DD-MMM-YYYY")</f>
         <v>12-Jun-2018</v>
       </c>
       <c r="P93" s="1" t="s">
@@ -9072,7 +9072,7 @@
         <v>19</v>
       </c>
       <c r="S93" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C93,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0092.jpg</v>
       </c>
       <c r="T93" s="1" t="s">
@@ -9087,7 +9087,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B94,"0000")</f>
         <v>0093</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -9100,7 +9100,7 @@
         <v>17</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E94,", ",F94)</f>
         <v>Maicao, La Guajira</v>
       </c>
       <c r="H94" s="1">
@@ -9113,23 +9113,23 @@
         <v>43263</v>
       </c>
       <c r="K94" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J94,"DD-MM-YYYY")</f>
         <v>12-06-2018</v>
       </c>
       <c r="L94" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J94)</f>
         <v>2018</v>
       </c>
       <c r="M94" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J94)</f>
         <v>6</v>
       </c>
       <c r="N94" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J94)</f>
         <v>12</v>
       </c>
       <c r="O94" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K94,"DD-MMM-YYYY")</f>
         <v>12-Jun-2018</v>
       </c>
       <c r="P94" s="1" t="s">
@@ -9142,7 +9142,7 @@
         <v>44</v>
       </c>
       <c r="S94" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C94,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0093.jpg</v>
       </c>
       <c r="T94" s="1" t="s">
@@ -9157,7 +9157,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B95,"0000")</f>
         <v>0094</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -9170,7 +9170,7 @@
         <v>228</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E95,", ",F95)</f>
         <v>Teorama, Norte de Santander</v>
       </c>
       <c r="H95" s="1">
@@ -9183,23 +9183,23 @@
         <v>43274</v>
       </c>
       <c r="K95" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J95,"DD-MM-YYYY")</f>
         <v>23-06-2018</v>
       </c>
       <c r="L95" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J95)</f>
         <v>2018</v>
       </c>
       <c r="M95" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J95)</f>
         <v>6</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J95)</f>
         <v>23</v>
       </c>
       <c r="O95" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K95,"DD-MMM-YYYY")</f>
         <v>23-Jun-2018</v>
       </c>
       <c r="P95" s="1" t="s">
@@ -9212,7 +9212,7 @@
         <v>19</v>
       </c>
       <c r="S95" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C95,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0094.jpg</v>
       </c>
       <c r="T95" s="1" t="s">
@@ -9227,7 +9227,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B96,"0000")</f>
         <v>0095</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -9240,7 +9240,7 @@
         <v>88</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E96,", ",F96)</f>
         <v>Ituango, Antioquia</v>
       </c>
       <c r="H96" s="1">
@@ -9253,23 +9253,23 @@
         <v>43276</v>
       </c>
       <c r="K96" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J96,"DD-MM-YYYY")</f>
         <v>25-06-2018</v>
       </c>
       <c r="L96" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J96)</f>
         <v>2018</v>
       </c>
       <c r="M96" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J96)</f>
         <v>6</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J96)</f>
         <v>25</v>
       </c>
       <c r="O96" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K96,"DD-MMM-YYYY")</f>
         <v>25-Jun-2018</v>
       </c>
       <c r="P96" s="1" t="s">
@@ -9282,7 +9282,7 @@
         <v>19</v>
       </c>
       <c r="S96" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C96,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0095.jpg</v>
       </c>
       <c r="T96" s="1" t="s">
@@ -9297,7 +9297,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+TEXT(B97,"0000")</f>
         <v>0096</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -9310,7 +9310,7 @@
         <v>36</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f>+CONCATENATE(E97,", ",F97)</f>
         <v>Patía, Cauca</v>
       </c>
       <c r="H97" s="1">
@@ -9323,23 +9323,23 @@
         <v>43278</v>
       </c>
       <c r="K97" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f>+TEXT(J97,"DD-MM-YYYY")</f>
         <v>27-06-2018</v>
       </c>
       <c r="L97" s="4">
-        <f t="shared" si="18"/>
+        <f>+YEAR(J97)</f>
         <v>2018</v>
       </c>
       <c r="M97" s="4">
-        <f t="shared" si="19"/>
+        <f>+MONTH(J97)</f>
         <v>6</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="20"/>
+        <f>+DAY(J97)</f>
         <v>27</v>
       </c>
       <c r="O97" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f>+TEXT(K97,"DD-MMM-YYYY")</f>
         <v>27-Jun-2018</v>
       </c>
       <c r="P97" s="1" t="s">
@@ -9352,7 +9352,7 @@
         <v>19</v>
       </c>
       <c r="S97" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C97,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0096.jpg</v>
       </c>
       <c r="T97" s="1" t="s">
@@ -9367,7 +9367,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f t="shared" ref="C98:C104" si="23">+TEXT(B98,"0000")</f>
+        <f>+TEXT(B98,"0000")</f>
         <v>0097</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -9380,7 +9380,7 @@
         <v>36</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f t="shared" ref="G98:G104" si="24">+CONCATENATE(E98,", ",F98)</f>
+        <f>+CONCATENATE(E98,", ",F98)</f>
         <v>Buenos Aires, Cauca</v>
       </c>
       <c r="H98" s="1">
@@ -9393,23 +9393,23 @@
         <v>43283</v>
       </c>
       <c r="K98" s="1" t="str">
-        <f t="shared" ref="K98:K104" si="25">+TEXT(J98,"DD-MM-YYYY")</f>
+        <f>+TEXT(J98,"DD-MM-YYYY")</f>
         <v>02-07-2018</v>
       </c>
       <c r="L98" s="4">
-        <f t="shared" ref="L98:L104" si="26">+YEAR(J98)</f>
+        <f>+YEAR(J98)</f>
         <v>2018</v>
       </c>
       <c r="M98" s="4">
-        <f t="shared" ref="M98:M104" si="27">+MONTH(J98)</f>
+        <f>+MONTH(J98)</f>
         <v>7</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" ref="N98:N104" si="28">+DAY(J98)</f>
+        <f>+DAY(J98)</f>
         <v>2</v>
       </c>
       <c r="O98" s="3" t="str">
-        <f t="shared" ref="O98:O104" si="29">+TEXT(K98,"DD-MMM-YYYY")</f>
+        <f>+TEXT(K98,"DD-MMM-YYYY")</f>
         <v>02-Jul-2018</v>
       </c>
       <c r="P98" s="1" t="s">
@@ -9422,7 +9422,7 @@
         <v>19</v>
       </c>
       <c r="S98" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C98,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0097.jpg</v>
       </c>
       <c r="T98" s="1" t="s">
@@ -9437,7 +9437,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f>+TEXT(B99,"0000")</f>
         <v>0098</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -9450,36 +9450,36 @@
         <v>42</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f>+CONCATENATE(E99,", ",F99)</f>
         <v>Puerto Libertador, Córdoba</v>
       </c>
       <c r="H99" s="1">
         <v>-75.680000000000007</v>
       </c>
       <c r="I99" s="1">
-        <v>-7.86</v>
+        <v>7.86</v>
       </c>
       <c r="J99" s="2">
         <v>43280</v>
       </c>
       <c r="K99" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f>+TEXT(J99,"DD-MM-YYYY")</f>
         <v>29-06-2018</v>
       </c>
       <c r="L99" s="4">
-        <f t="shared" si="26"/>
+        <f>+YEAR(J99)</f>
         <v>2018</v>
       </c>
       <c r="M99" s="4">
-        <f t="shared" si="27"/>
+        <f>+MONTH(J99)</f>
         <v>6</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="28"/>
+        <f>+DAY(J99)</f>
         <v>29</v>
       </c>
       <c r="O99" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f>+TEXT(K99,"DD-MMM-YYYY")</f>
         <v>29-Jun-2018</v>
       </c>
       <c r="P99" s="1" t="s">
@@ -9492,7 +9492,7 @@
         <v>19</v>
       </c>
       <c r="S99" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C99,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0098.jpg</v>
       </c>
       <c r="T99" s="1" t="s">
@@ -9507,7 +9507,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f>+TEXT(B100,"0000")</f>
         <v>0099</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -9520,7 +9520,7 @@
         <v>30</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f>+CONCATENATE(E100,", ",F100)</f>
         <v>Palmar de Varela, Atlántico</v>
       </c>
       <c r="H100" s="1">
@@ -9533,23 +9533,23 @@
         <v>43284</v>
       </c>
       <c r="K100" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f>+TEXT(J100,"DD-MM-YYYY")</f>
         <v>03-07-2018</v>
       </c>
       <c r="L100" s="4">
-        <f t="shared" si="26"/>
+        <f>+YEAR(J100)</f>
         <v>2018</v>
       </c>
       <c r="M100" s="4">
-        <f t="shared" si="27"/>
+        <f>+MONTH(J100)</f>
         <v>7</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="28"/>
+        <f>+DAY(J100)</f>
         <v>3</v>
       </c>
       <c r="O100" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f>+TEXT(K100,"DD-MMM-YYYY")</f>
         <v>03-Jul-2018</v>
       </c>
       <c r="P100" s="1" t="s">
@@ -9562,7 +9562,7 @@
         <v>19</v>
       </c>
       <c r="S100" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C100,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0099.jpg</v>
       </c>
       <c r="T100" s="1" t="s">
@@ -9577,7 +9577,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f>+TEXT(B101,"0000")</f>
         <v>0100</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -9590,7 +9590,7 @@
         <v>82</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f>+CONCATENATE(E101,", ",F101)</f>
         <v>Quibdó, Chocó</v>
       </c>
       <c r="H101" s="1">
@@ -9603,23 +9603,23 @@
         <v>43284</v>
       </c>
       <c r="K101" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f>+TEXT(J101,"DD-MM-YYYY")</f>
         <v>03-07-2018</v>
       </c>
       <c r="L101" s="4">
-        <f t="shared" si="26"/>
+        <f>+YEAR(J101)</f>
         <v>2018</v>
       </c>
       <c r="M101" s="4">
-        <f t="shared" si="27"/>
+        <f>+MONTH(J101)</f>
         <v>7</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="28"/>
+        <f>+DAY(J101)</f>
         <v>3</v>
       </c>
       <c r="O101" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f>+TEXT(K101,"DD-MMM-YYYY")</f>
         <v>03-Jul-2018</v>
       </c>
       <c r="P101" s="1" t="s">
@@ -9632,7 +9632,7 @@
         <v>44</v>
       </c>
       <c r="S101" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C101,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0100.jpg</v>
       </c>
       <c r="T101" s="1" t="s">
@@ -9647,7 +9647,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f>+TEXT(B102,"0000")</f>
         <v>0101</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -9660,7 +9660,7 @@
         <v>196</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f>+CONCATENATE(E102,", ",F102)</f>
         <v>Tumaco, Nariño</v>
       </c>
       <c r="H102" s="1">
@@ -9673,23 +9673,23 @@
         <v>43284</v>
       </c>
       <c r="K102" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f>+TEXT(J102,"DD-MM-YYYY")</f>
         <v>03-07-2018</v>
       </c>
       <c r="L102" s="4">
-        <f t="shared" si="26"/>
+        <f>+YEAR(J102)</f>
         <v>2018</v>
       </c>
       <c r="M102" s="4">
-        <f t="shared" si="27"/>
+        <f>+MONTH(J102)</f>
         <v>7</v>
       </c>
       <c r="N102" s="4">
-        <f t="shared" si="28"/>
+        <f>+DAY(J102)</f>
         <v>3</v>
       </c>
       <c r="O102" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f>+TEXT(K102,"DD-MMM-YYYY")</f>
         <v>03-Jul-2018</v>
       </c>
       <c r="P102" s="1" t="s">
@@ -9702,7 +9702,7 @@
         <v>44</v>
       </c>
       <c r="S102" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C102,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0101.jpg</v>
       </c>
       <c r="T102" s="1" t="s">
@@ -9717,7 +9717,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f>+TEXT(B103,"0000")</f>
         <v>0102</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -9730,7 +9730,7 @@
         <v>88</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f>+CONCATENATE(E103,", ",F103)</f>
         <v>Cáceres, Antioquia</v>
       </c>
       <c r="H103" s="1">
@@ -9743,23 +9743,23 @@
         <v>43285</v>
       </c>
       <c r="K103" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f>+TEXT(J103,"DD-MM-YYYY")</f>
         <v>04-07-2018</v>
       </c>
       <c r="L103" s="4">
-        <f t="shared" si="26"/>
+        <f>+YEAR(J103)</f>
         <v>2018</v>
       </c>
       <c r="M103" s="4">
-        <f t="shared" si="27"/>
+        <f>+MONTH(J103)</f>
         <v>7</v>
       </c>
       <c r="N103" s="4">
-        <f t="shared" si="28"/>
+        <f>+DAY(J103)</f>
         <v>4</v>
       </c>
       <c r="O103" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f>+TEXT(K103,"DD-MMM-YYYY")</f>
         <v>04-Jul-2018</v>
       </c>
       <c r="P103" s="1" t="s">
@@ -9772,7 +9772,7 @@
         <v>44</v>
       </c>
       <c r="S103" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C103,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0102.jpg</v>
       </c>
       <c r="T103" s="1" t="s">
@@ -9787,7 +9787,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f>+TEXT(B104,"0000")</f>
         <v>0103</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -9800,7 +9800,7 @@
         <v>36</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f>+CONCATENATE(E104,", ",F104)</f>
         <v>Caloto, Cauca</v>
       </c>
       <c r="H104" s="1">
@@ -9813,23 +9813,23 @@
         <v>43279</v>
       </c>
       <c r="K104" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f>+TEXT(J104,"DD-MM-YYYY")</f>
         <v>28-06-2018</v>
       </c>
       <c r="L104" s="4">
-        <f t="shared" si="26"/>
+        <f>+YEAR(J104)</f>
         <v>2018</v>
       </c>
       <c r="M104" s="4">
-        <f t="shared" si="27"/>
+        <f>+MONTH(J104)</f>
         <v>6</v>
       </c>
       <c r="N104" s="4">
-        <f t="shared" si="28"/>
+        <f>+DAY(J104)</f>
         <v>28</v>
       </c>
       <c r="O104" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f>+TEXT(K104,"DD-MMM-YYYY")</f>
         <v>28-Jun-2018</v>
       </c>
       <c r="P104" s="1" t="s">
@@ -9842,7 +9842,7 @@
         <v>19</v>
       </c>
       <c r="S104" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f>+TEXT(CONCATENATE("https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/",C104,".jpg"),)</f>
         <v>https://raw.githubusercontent.com/cccruzr/LideresSociales/master/docs/_data/IMG/0103.jpg</v>
       </c>
       <c r="T104" s="1" t="s">
